--- a/Python/Output_Excels/Beerpur.xlsx
+++ b/Python/Output_Excels/Beerpur.xlsx
@@ -3090,19 +3090,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F554"/>
+  <dimension ref="A1:G554"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E554"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,6 +3142,10 @@
       <c r="E2" s="0" t="n">
         <v>9676707627</v>
       </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C2</f>
+        <v>CKR-1THATI GANGADHAR</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -3158,6 +3163,10 @@
       <c r="E3" s="0" t="n">
         <v>8790828676</v>
       </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C3</f>
+        <v>CKR-1GAJJELA SANDHYA</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -3175,6 +3184,10 @@
       <c r="E4" s="0" t="n">
         <v>9703938403</v>
       </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C4</f>
+        <v>CKR-1DIVYA KUMARI CHERUPURI</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -3192,6 +3205,10 @@
       <c r="E5" s="0" t="n">
         <v>9948049707</v>
       </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C5</f>
+        <v>CKR-1VEYYA JANARDHAN</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -3209,6 +3226,10 @@
       <c r="E6" s="0" t="n">
         <v>9177991502</v>
       </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C6</f>
+        <v>CKR-1DOOTA NARENDAR</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -3226,6 +3247,10 @@
       <c r="E7" s="0" t="n">
         <v>8897074366</v>
       </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C7</f>
+        <v>CKR-1MANGA KATTA</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -3243,6 +3268,10 @@
       <c r="E8" s="0" t="n">
         <v>9666205286</v>
       </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C8</f>
+        <v>CKR-1CHUNCHU SUPRIYA</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -3260,6 +3289,10 @@
       <c r="E9" s="0" t="n">
         <v>8466006057</v>
       </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C9</f>
+        <v>CKR-1ESTHERURANI THODASAM</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -3277,6 +3310,10 @@
       <c r="E10" s="0" t="n">
         <v>8790316080</v>
       </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C10</f>
+        <v>CKR-1THODUSAM THABITHA</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -3294,6 +3331,10 @@
       <c r="E11" s="0" t="n">
         <v>8340816801</v>
       </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C11</f>
+        <v>CKR-1REVATHI RYAGALLA</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -3311,6 +3352,10 @@
       <c r="E12" s="0" t="n">
         <v>9010319431</v>
       </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C12</f>
+        <v>CKR-1VEYYA LAVANYA</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -3328,6 +3373,10 @@
       <c r="E13" s="0" t="n">
         <v>8978987488</v>
       </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C13</f>
+        <v>CKR-1DILEEP MAMIDIPELLI</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -3345,6 +3394,10 @@
       <c r="E14" s="0" t="n">
         <v>9676716190</v>
       </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C14</f>
+        <v>CKR-1CHIKRAM KALYAN KUMAR</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -3362,6 +3415,10 @@
       <c r="E15" s="0" t="n">
         <v>7993909949</v>
       </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C15</f>
+        <v>CKR-1TODASAM KRUPAKAR</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -3379,6 +3436,10 @@
       <c r="E16" s="0" t="n">
         <v>9010290990</v>
       </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C16</f>
+        <v>CKR-1DEVAKI RAMADEVI</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -3396,6 +3457,10 @@
       <c r="E17" s="0" t="n">
         <v>9177637720</v>
       </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C17</f>
+        <v>CKR-1SATHISH CHETLA</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -3413,6 +3478,10 @@
       <c r="E18" s="0" t="n">
         <v>9502331430</v>
       </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C18</f>
+        <v>CKR-1THIRUMALA KUSHANAPALLI</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -3430,6 +3499,10 @@
       <c r="E19" s="0" t="n">
         <v>8374489650</v>
       </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C19</f>
+        <v>CKR-1GAYATRI BHEEMANATHI</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -3447,6 +3520,10 @@
       <c r="E20" s="0" t="n">
         <v>9963469425</v>
       </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C20</f>
+        <v>CKR-1SATYAM PURAMSHETTI</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -3464,6 +3541,10 @@
       <c r="E21" s="0" t="n">
         <v>9490182315</v>
       </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C21</f>
+        <v>CKR-1RAMAKISTU BUCHIRAMULU</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -3481,6 +3562,10 @@
       <c r="E22" s="0" t="n">
         <v>7702706416</v>
       </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C22</f>
+        <v>CKR-1ANOOSHA MADASU</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -3498,6 +3583,10 @@
       <c r="E23" s="0" t="n">
         <v>9948532109</v>
       </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C23</f>
+        <v>CKR-1GARISHAKURTHI SHILPA</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -3515,6 +3604,10 @@
       <c r="E24" s="0" t="n">
         <v>8897975707</v>
       </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C24</f>
+        <v>CKR-1PANJALA SAIKUMAR</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -3532,6 +3625,10 @@
       <c r="E25" s="0" t="n">
         <v>8367227570</v>
       </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C25</f>
+        <v>CKR-1DDINESH MANDA</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -3549,6 +3646,10 @@
       <c r="E26" s="0" t="n">
         <v>8978968315</v>
       </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C26</f>
+        <v>CKR-1SUMALATHA GUNDA</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -3566,6 +3667,10 @@
       <c r="E27" s="0" t="n">
         <v>9573240500</v>
       </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C27</f>
+        <v>CKR-1MANGARANI UYYALA</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -3583,6 +3688,10 @@
       <c r="E28" s="0" t="n">
         <v>6300389217</v>
       </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C28</f>
+        <v>CKR-1VENUGOPAL KUKKATI</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -3600,6 +3709,10 @@
       <c r="E29" s="0" t="n">
         <v>8374916075</v>
       </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C29</f>
+        <v>CKR-1MAHESH IMMADI</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -3617,6 +3730,10 @@
       <c r="E30" s="0" t="n">
         <v>6302287202</v>
       </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C30</f>
+        <v>CKR-1RUCHITHA THATI</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -3634,6 +3751,10 @@
       <c r="E31" s="0" t="n">
         <v>8340893911</v>
       </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C31</f>
+        <v>CKR-1KATUKAM MADHAVI</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -3651,6 +3772,10 @@
       <c r="E32" s="0" t="n">
         <v>9542818187</v>
       </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C32</f>
+        <v>CKR-1BANUKA PRAKASH</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -3668,6 +3793,10 @@
       <c r="E33" s="0" t="n">
         <v>7732015295</v>
       </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C33</f>
+        <v>CKR-1NAVVA MANASA</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -3685,6 +3814,10 @@
       <c r="E34" s="0" t="n">
         <v>8790339592</v>
       </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C34</f>
+        <v>CKR-1SREENIVAS M</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -3702,6 +3835,10 @@
       <c r="E35" s="0" t="n">
         <v>8500467279</v>
       </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C35</f>
+        <v>CKR-1VENKATESHWARLU GANGADHARI</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -3719,6 +3856,10 @@
       <c r="E36" s="0" t="n">
         <v>9652510096</v>
       </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C36</f>
+        <v>CKR-1MURALI GODISALA</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -3736,6 +3877,10 @@
       <c r="E37" s="0" t="n">
         <v>8790705822</v>
       </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C37</f>
+        <v>CKR-1AJAY GAJANGI</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -3753,6 +3898,10 @@
       <c r="E38" s="0" t="n">
         <v>9666797900</v>
       </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C38</f>
+        <v>CKR-1CHIKKULLA RAVIVARMA</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -3770,6 +3919,10 @@
       <c r="E39" s="0" t="n">
         <v>9948528533</v>
       </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C39</f>
+        <v>CKR-1SATHAIAH MENDU</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -3787,6 +3940,10 @@
       <c r="E40" s="0" t="n">
         <v>9951868016</v>
       </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C40</f>
+        <v>CKR-1CHINTHALA SURESH</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -3804,6 +3961,10 @@
       <c r="E41" s="0" t="n">
         <v>8978298219</v>
       </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C41</f>
+        <v>CKR-1MANASA MANDA</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -3821,6 +3982,10 @@
       <c r="E42" s="0" t="n">
         <v>9440089076</v>
       </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C42</f>
+        <v>CKR-1VENUGOPALA CHARY POLASA</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -3838,6 +4003,10 @@
       <c r="E43" s="0" t="n">
         <v>7893203851</v>
       </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C43</f>
+        <v>CKR-1NAGARAJU PONNAMALLA</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -3855,6 +4024,10 @@
       <c r="E44" s="0" t="n">
         <v>8688073222</v>
       </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C44</f>
+        <v>CKR-1RATHNAKAR AJMEERA</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -3872,6 +4045,10 @@
       <c r="E45" s="0" t="n">
         <v>9849620355</v>
       </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C45</f>
+        <v>CKR-1MADHAVI GURUNATHAM</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -3889,6 +4066,10 @@
       <c r="E46" s="0" t="n">
         <v>8978140900</v>
       </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C46</f>
+        <v>CKR-1DUMPETA MAHENDAR</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -3906,6 +4087,10 @@
       <c r="E47" s="0" t="n">
         <v>9542818187</v>
       </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C47</f>
+        <v>CKR-1SAINABOINA LAVANYA</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -3923,6 +4108,10 @@
       <c r="E48" s="0" t="n">
         <v>8184983921</v>
       </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C48</f>
+        <v>CKR-1MALLESHAM SAINDLA</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -3940,6 +4129,10 @@
       <c r="E49" s="0" t="n">
         <v>9951626181</v>
       </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C49</f>
+        <v>CKR-1SRINIVAS EDLA</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -3957,6 +4150,10 @@
       <c r="E50" s="0" t="n">
         <v>7780695696</v>
       </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C50</f>
+        <v>CKR-1MALLESHAM MADDELA</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -3974,6 +4171,10 @@
       <c r="E51" s="0" t="n">
         <v>9948532109</v>
       </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C51</f>
+        <v>CKR-1GARISHAKURTHI RAMESH</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -3991,6 +4192,10 @@
       <c r="E52" s="0" t="n">
         <v>9502663565</v>
       </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C52</f>
+        <v>CKR-1RAMU ARELLY</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -4008,6 +4213,10 @@
       <c r="E53" s="0" t="n">
         <v>7287859834</v>
       </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C53</f>
+        <v>CKR-1SWARNALATHA PATTAM</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -4025,6 +4234,10 @@
       <c r="E54" s="0" t="n">
         <v>9908589954</v>
       </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C54</f>
+        <v>CKR-1RAMESH PATTAM</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -4042,6 +4255,10 @@
       <c r="E55" s="0" t="n">
         <v>9701571184</v>
       </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C55</f>
+        <v>CKR-1PREM SAGAR MAMIDIPELLI</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -4059,6 +4276,10 @@
       <c r="E56" s="0" t="n">
         <v>7702887251</v>
       </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C56</f>
+        <v>CKR-1KARTHIK MERUGU</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -4076,6 +4297,10 @@
       <c r="E57" s="0" t="n">
         <v>9493973672</v>
       </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C57</f>
+        <v>CKR-1LAXMAN KASTURI</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -4093,6 +4318,10 @@
       <c r="E58" s="0" t="n">
         <v>9676152060</v>
       </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C58</f>
+        <v>CKR-1KARTHIK YASHODA</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -4110,6 +4339,10 @@
       <c r="E59" s="0" t="n">
         <v>9652803650</v>
       </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C59</f>
+        <v>CKR-1RAMA NERELLA</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -4127,6 +4360,10 @@
       <c r="E60" s="0" t="n">
         <v>9347471776</v>
       </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C60</f>
+        <v>CKR-1SHIRISHA KUMBALA</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -4144,6 +4381,10 @@
       <c r="E61" s="0" t="n">
         <v>9866158951</v>
       </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C61</f>
+        <v>CKR-1ABHILASH BHEEMANATHI</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -4161,6 +4402,10 @@
       <c r="E62" s="0" t="n">
         <v>9959711742</v>
       </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C62</f>
+        <v>CKR-1RAVALI THODETI</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -4178,6 +4423,10 @@
       <c r="E63" s="0" t="n">
         <v>8639223232</v>
       </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C63</f>
+        <v>CKR-1GORLA SRINIVASA YADAV</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -4195,6 +4444,10 @@
       <c r="E64" s="0" t="n">
         <v>9100642346</v>
       </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C64</f>
+        <v>CKR-1RAKESH KANDUKOORI</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -4212,6 +4465,10 @@
       <c r="E65" s="0" t="n">
         <v>9849925435</v>
       </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C65</f>
+        <v>CKR-1KOLLURI DIVYA</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -4229,6 +4486,10 @@
       <c r="E66" s="0" t="n">
         <v>9640721250</v>
       </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C66</f>
+        <v>CKR-1ADLA VENKATESHWARLU</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -4246,6 +4507,10 @@
       <c r="E67" s="0" t="n">
         <v>9666205286</v>
       </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C67</f>
+        <v>CKR-1CHUNCHU SUSHMITHA</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -4263,6 +4528,10 @@
       <c r="E68" s="0" t="n">
         <v>9550827177</v>
       </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C68</f>
+        <v>CKR-1NARAVENI JALENDHAR</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -4280,6 +4549,10 @@
       <c r="E69" s="0" t="n">
         <v>7095012257</v>
       </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C69</f>
+        <v>CKR-1CHANDRAKALA BADDI</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -4297,6 +4570,10 @@
       <c r="E70" s="0" t="n">
         <v>9866295060</v>
       </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C70</f>
+        <v>CKR-1THODASAM GANGADHAR</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -4314,6 +4591,10 @@
       <c r="E71" s="0" t="n">
         <v>9652560114</v>
       </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C71</f>
+        <v>CKR-1MOUNIKA KONAPALLI</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -4331,6 +4612,10 @@
       <c r="E72" s="0" t="n">
         <v>9502036233</v>
       </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C72</f>
+        <v>CKR-1VENU VEYYA</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -4348,6 +4633,10 @@
       <c r="E73" s="0" t="n">
         <v>9989442629</v>
       </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C73</f>
+        <v>CKR-1MAMATHA KADARI</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -4365,6 +4654,10 @@
       <c r="E74" s="0" t="n">
         <v>9849420920</v>
       </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C74</f>
+        <v>CKR-1SWARNALATHA ALUKATURI</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -4382,6 +4675,10 @@
       <c r="E75" s="0" t="n">
         <v>8374671435</v>
       </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C75</f>
+        <v>CKR-1CHEEPIRISHETTI MAHESH</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -4399,6 +4696,10 @@
       <c r="E76" s="0" t="n">
         <v>9949941283</v>
       </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C76</f>
+        <v>CKR-1GUDISE MIDHUN</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -4416,6 +4717,10 @@
       <c r="E77" s="0" t="n">
         <v>9381979518</v>
       </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C77</f>
+        <v>CKR-1AJAY MAMIDIPALLY</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -4433,6 +4738,10 @@
       <c r="E78" s="0" t="n">
         <v>9177309073</v>
       </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C78</f>
+        <v>CKR-1GOVARDHAN BIMANATHI</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -4450,6 +4759,10 @@
       <c r="E79" s="0" t="n">
         <v>9963576003</v>
       </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C79</f>
+        <v>CKR-1NARAPAKA ASHOK NARAPAKA</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -4467,6 +4780,10 @@
       <c r="E80" s="0" t="n">
         <v>8985852131</v>
       </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C80</f>
+        <v>CKR-1RANJITH KUMAR YASHODA</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -4484,6 +4801,10 @@
       <c r="E81" s="0" t="n">
         <v>8985654725</v>
       </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C81</f>
+        <v>CKR-1PARVATHI GOUTHAMI</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -4501,6 +4822,10 @@
       <c r="E82" s="0" t="n">
         <v>7842781880</v>
       </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C82</f>
+        <v>CKR-1SURESH ANAGANDULA</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -4518,6 +4843,10 @@
       <c r="E83" s="0" t="n">
         <v>8790603983</v>
       </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C83</f>
+        <v>CKR-1RAJU THUPAKULA</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -4535,6 +4864,10 @@
       <c r="E84" s="0" t="n">
         <v>9949088773</v>
       </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C84</f>
+        <v>CKR-1NAGAJYOTHI SAMALA</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -4552,6 +4885,10 @@
       <c r="E85" s="0" t="n">
         <v>9985943610</v>
       </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C85</f>
+        <v>CKR-1NARESH GUMMULA</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
@@ -4569,6 +4906,10 @@
       <c r="E86" s="0" t="n">
         <v>8374168871</v>
       </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C86</f>
+        <v>CKR-1KALAMADUGU LAXMI KALAMADUGU</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
@@ -4586,6 +4927,10 @@
       <c r="E87" s="0" t="n">
         <v>9502344584</v>
       </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C87</f>
+        <v>CKR-1RAJENDHAR RACHAMALLA</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
@@ -4603,6 +4948,10 @@
       <c r="E88" s="0" t="n">
         <v>9492985589</v>
       </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C88</f>
+        <v>CKR-1PADMA KANDUKURI</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -4620,6 +4969,10 @@
       <c r="E89" s="0" t="n">
         <v>9177336362</v>
       </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C89</f>
+        <v>CKR-1ANAND RACHAMALLA</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
@@ -4637,6 +4990,10 @@
       <c r="E90" s="0" t="n">
         <v>9542226664</v>
       </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C90</f>
+        <v>CKR-1SANTHOSH VODDIPELLI</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -4654,6 +5011,10 @@
       <c r="E91" s="0" t="n">
         <v>9493973672</v>
       </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C91</f>
+        <v>CKR-1SHANTHOSH MITTAPALLY</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
@@ -4671,6 +5032,10 @@
       <c r="E92" s="0" t="n">
         <v>9493973672</v>
       </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C92</f>
+        <v>CKR-1SRINIVAS PURAM SHETTY</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
@@ -4688,6 +5053,10 @@
       <c r="E93" s="0" t="n">
         <v>9849620355</v>
       </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C93</f>
+        <v>CKR-1MADHUKAR GURUNATHAM</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -4705,6 +5074,10 @@
       <c r="E94" s="0" t="n">
         <v>9912291927</v>
       </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C94</f>
+        <v>CKR-1RAVI BERA</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -4722,6 +5095,10 @@
       <c r="E95" s="0" t="n">
         <v>9573240500</v>
       </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C95</f>
+        <v>CKR-1MALLESH UYYALA</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -4739,6 +5116,10 @@
       <c r="E96" s="0" t="n">
         <v>8790130316</v>
       </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C96</f>
+        <v>CKR-1THIRUPATHI GURNATHAM</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -4756,6 +5137,10 @@
       <c r="E97" s="0" t="n">
         <v>9550782790</v>
       </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C97</f>
+        <v>CKR-1GANESH KURIKYALA</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -4773,6 +5158,10 @@
       <c r="E98" s="0" t="n">
         <v>8187895026</v>
       </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C98</f>
+        <v>CKR-1SUDHAKAR MANDA</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -4790,6 +5179,10 @@
       <c r="E99" s="0" t="n">
         <v>9704605945</v>
       </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C99</f>
+        <v>CKR-1CHANDRASHEKAR TOGITI</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
@@ -4807,6 +5200,10 @@
       <c r="E100" s="0" t="n">
         <v>8374168871</v>
       </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C100</f>
+        <v>CKR-1LAXMI KALAMADUGU</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
@@ -4824,6 +5221,10 @@
       <c r="E101" s="0" t="n">
         <v>9493110443</v>
       </c>
+      <c r="G101" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C101</f>
+        <v>CKR-1VIKRAM GUNDETI</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
@@ -4841,6 +5242,10 @@
       <c r="E102" s="0" t="n">
         <v>9848196618</v>
       </c>
+      <c r="G102" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C102</f>
+        <v>CKR-1ADLA SUSHEEN</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
@@ -4858,6 +5263,10 @@
       <c r="E103" s="0" t="n">
         <v>9849420920</v>
       </c>
+      <c r="G103" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C103</f>
+        <v>CKR-1RAMESH GODISELA</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -4875,6 +5284,10 @@
       <c r="E104" s="0" t="n">
         <v>8309921602</v>
       </c>
+      <c r="G104" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C104</f>
+        <v>CKR-1CHANDHALA THIRUMALA</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -4892,6 +5305,10 @@
       <c r="E105" s="0" t="n">
         <v>9618119092</v>
       </c>
+      <c r="G105" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C105</f>
+        <v>CKR-1RAGHUPATHI YADAV GODUGU</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -4909,6 +5326,10 @@
       <c r="E106" s="0" t="n">
         <v>9100203233</v>
       </c>
+      <c r="G106" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C106</f>
+        <v>CKR-1ARUNDHATHI GATLA</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -4926,6 +5347,10 @@
       <c r="E107" s="0" t="n">
         <v>9177315274</v>
       </c>
+      <c r="G107" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C107</f>
+        <v>CKR-1RAJESH BOUTHU</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -4943,6 +5368,10 @@
       <c r="E108" s="0" t="n">
         <v>9100722919</v>
       </c>
+      <c r="G108" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C108</f>
+        <v>CKR-1PRIYANKA SAMALA</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -4960,6 +5389,10 @@
       <c r="E109" s="0" t="n">
         <v>6300166489</v>
       </c>
+      <c r="G109" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C109</f>
+        <v>CKR-1SHIRISHA KUKKATI</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
@@ -4977,6 +5410,10 @@
       <c r="E110" s="0" t="n">
         <v>9989872717</v>
       </c>
+      <c r="G110" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C110</f>
+        <v>CKR-1MAHESH GANDRA</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
@@ -4994,6 +5431,10 @@
       <c r="E111" s="0" t="n">
         <v>7893234429</v>
       </c>
+      <c r="G111" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C111</f>
+        <v>CKR-1SRI RAMULA RAJKUMAR</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -5011,6 +5452,10 @@
       <c r="E112" s="0" t="n">
         <v>9701245260</v>
       </c>
+      <c r="G112" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C112</f>
+        <v>CKR-1JELLA BHEEMARAJU</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -5028,6 +5473,10 @@
       <c r="E113" s="0" t="n">
         <v>9652869027</v>
       </c>
+      <c r="G113" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C113</f>
+        <v>CKR-1SOUMYA ADEPU</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -5045,6 +5494,10 @@
       <c r="E114" s="0" t="n">
         <v>6304694667</v>
       </c>
+      <c r="G114" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C114</f>
+        <v>CKR-1VENKATESH ADEPU</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -5062,6 +5515,10 @@
       <c r="E115" s="0" t="n">
         <v>9000116091</v>
       </c>
+      <c r="G115" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C115</f>
+        <v>CKR-1RANJITH MAMIDIPELLY</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -5079,6 +5536,10 @@
       <c r="E116" s="0" t="n">
         <v>7997179715</v>
       </c>
+      <c r="G116" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C116</f>
+        <v>CKR-1VINODH NOORA</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
@@ -5096,6 +5557,10 @@
       <c r="E117" s="0" t="n">
         <v>9000015516</v>
       </c>
+      <c r="G117" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C117</f>
+        <v>CKR-1THIRUPATHY GUMMULA</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -5113,6 +5578,10 @@
       <c r="E118" s="0" t="n">
         <v>9618063421</v>
       </c>
+      <c r="G118" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C118</f>
+        <v>CKR-1PURASTHULA SUNITHA</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -5130,6 +5599,10 @@
       <c r="E119" s="0" t="n">
         <v>9505204714</v>
       </c>
+      <c r="G119" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C119</f>
+        <v>CKR-1ANJANNA GOTTE</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -5147,6 +5620,10 @@
       <c r="E120" s="0" t="n">
         <v>8790885041</v>
       </c>
+      <c r="G120" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C120</f>
+        <v>CKR-1NARAPAKA LAXMAN</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -5164,6 +5641,10 @@
       <c r="E121" s="0" t="n">
         <v>8179602420</v>
       </c>
+      <c r="G121" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C121</f>
+        <v>CKR-1NAVYA MUTHYALA</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -5181,6 +5662,10 @@
       <c r="E122" s="0" t="n">
         <v>9848196618</v>
       </c>
+      <c r="G122" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C122</f>
+        <v>CKR-1SRUJANA GORLA</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -5198,6 +5683,10 @@
       <c r="E123" s="0" t="n">
         <v>7731812563</v>
       </c>
+      <c r="G123" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C123</f>
+        <v>CKR-1CHUNCHU KUMARA SWAMY</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -5215,6 +5704,10 @@
       <c r="E124" s="0" t="n">
         <v>9951521174</v>
       </c>
+      <c r="G124" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C124</f>
+        <v>CKR-1RAMESH KANDUKURI</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -5232,6 +5725,10 @@
       <c r="E125" s="0" t="n">
         <v>8008398313</v>
       </c>
+      <c r="G125" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C125</f>
+        <v>CKR-1RAKESH SHEELAM</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -5249,6 +5746,10 @@
       <c r="E126" s="0" t="n">
         <v>9705790042</v>
       </c>
+      <c r="G126" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C126</f>
+        <v>CKR-1RAVINDHAR UYYALA</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -5266,6 +5767,10 @@
       <c r="E127" s="0" t="n">
         <v>9493473774</v>
       </c>
+      <c r="G127" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C127</f>
+        <v>CKR-1VIJAYKUMAR CHITNENI</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -5283,6 +5788,10 @@
       <c r="E128" s="0" t="n">
         <v>9491473002</v>
       </c>
+      <c r="G128" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C128</f>
+        <v>CKR-1PADMA BHEEMANATHI</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -5300,6 +5809,10 @@
       <c r="E129" s="0" t="n">
         <v>9666311311</v>
       </c>
+      <c r="G129" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C129</f>
+        <v>CKR-1SIRIPURAM RAKESH</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -5317,6 +5830,10 @@
       <c r="E130" s="0" t="n">
         <v>9493613817</v>
       </c>
+      <c r="G130" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C130</f>
+        <v>CKR-1SHRAVAN KOTHAPELLY</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
@@ -5334,6 +5851,10 @@
       <c r="E131" s="0" t="n">
         <v>7732060532</v>
       </c>
+      <c r="G131" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C131</f>
+        <v>CKR-1SOODA SUKUMAR</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
@@ -5351,6 +5872,10 @@
       <c r="E132" s="0" t="n">
         <v>8790700672</v>
       </c>
+      <c r="G132" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C132</f>
+        <v>CKR-1RAMA DEVI AADEPU</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
@@ -5368,6 +5893,10 @@
       <c r="E133" s="0" t="n">
         <v>9490217631</v>
       </c>
+      <c r="G133" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C133</f>
+        <v>CKR-1RAJENDRA PRASAD PUDURI</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
@@ -5385,6 +5914,10 @@
       <c r="E134" s="0" t="n">
         <v>9705906223</v>
       </c>
+      <c r="G134" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C134</f>
+        <v>CKR-1PRAKASH KADARI</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -5402,6 +5935,10 @@
       <c r="E135" s="0" t="n">
         <v>7893274693</v>
       </c>
+      <c r="G135" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C135</f>
+        <v>CKR-1GUMMULA CHANDRASHEKAR</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -5419,6 +5956,10 @@
       <c r="E136" s="0" t="n">
         <v>7780739479</v>
       </c>
+      <c r="G136" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C136</f>
+        <v>CKR-1GANGADHAR PIPPALA</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
@@ -5436,6 +5977,10 @@
       <c r="E137" s="0" t="n">
         <v>9177251454</v>
       </c>
+      <c r="G137" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C137</f>
+        <v>CKR-1NARESH INDARAPU</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -5453,6 +5998,10 @@
       <c r="E138" s="0" t="n">
         <v>9701703759</v>
       </c>
+      <c r="G138" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C138</f>
+        <v>CKR-1SHEELAM RANJITH</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
@@ -5470,6 +6019,10 @@
       <c r="E139" s="0" t="n">
         <v>9949559569</v>
       </c>
+      <c r="G139" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C139</f>
+        <v>CKR-1THIRUPATHI SUDDALA</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
@@ -5487,6 +6040,10 @@
       <c r="E140" s="0" t="n">
         <v>9550654829</v>
       </c>
+      <c r="G140" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C140</f>
+        <v>CKR-1RAMULU CHALLA</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
@@ -5504,6 +6061,10 @@
       <c r="E141" s="0" t="n">
         <v>9908328024</v>
       </c>
+      <c r="G141" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C141</f>
+        <v>CKR-1GANGADHARI MADHUSUDAN</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
@@ -5521,6 +6082,10 @@
       <c r="E142" s="0" t="n">
         <v>9392399869</v>
       </c>
+      <c r="G142" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C142</f>
+        <v>CKR-1RAMYA PORANDLA</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
@@ -5538,6 +6103,10 @@
       <c r="E143" s="0" t="n">
         <v>9948294382</v>
       </c>
+      <c r="G143" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C143</f>
+        <v>CKR-1MEKALA SWATHI</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
@@ -5555,6 +6124,10 @@
       <c r="E144" s="0" t="n">
         <v>9848516542</v>
       </c>
+      <c r="G144" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C144</f>
+        <v>CKR-1KOTHAKONDA SRIKANTH</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
@@ -5572,6 +6145,10 @@
       <c r="E145" s="0" t="n">
         <v>9618505030</v>
       </c>
+      <c r="G145" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C145</f>
+        <v>CKR-1V ASHOK RAO</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
@@ -5589,6 +6166,10 @@
       <c r="E146" s="0" t="n">
         <v>9912860275</v>
       </c>
+      <c r="G146" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C146</f>
+        <v>CKR-1GANESH DUMPETA</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
@@ -5606,6 +6187,10 @@
       <c r="E147" s="0" t="n">
         <v>9949943252</v>
       </c>
+      <c r="G147" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C147</f>
+        <v>CKR-1VENU GOPAL KASAM</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -5623,6 +6208,10 @@
       <c r="E148" s="0" t="n">
         <v>9493973672</v>
       </c>
+      <c r="G148" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C148</f>
+        <v>CKR-1RAJA SHEKAR CHIRNENI</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
@@ -5640,6 +6229,10 @@
       <c r="E149" s="0" t="n">
         <v>8008074951</v>
       </c>
+      <c r="G149" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C149</f>
+        <v>CKR-1RAJUKUMAR ADEPU</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -5657,6 +6250,10 @@
       <c r="E150" s="0" t="n">
         <v>9948561772</v>
       </c>
+      <c r="G150" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C150</f>
+        <v>CKR-1RAMESH SOODA</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
@@ -5674,6 +6271,10 @@
       <c r="E151" s="0" t="n">
         <v>8142678404</v>
       </c>
+      <c r="G151" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C151</f>
+        <v>CKR-1ANIL KUMAR P</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
@@ -5691,6 +6292,10 @@
       <c r="E152" s="0" t="n">
         <v>9553446032</v>
       </c>
+      <c r="G152" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C152</f>
+        <v>CKR-1JALENDHAR RAMAKISHTU</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
@@ -5708,6 +6313,10 @@
       <c r="E153" s="0" t="n">
         <v>9441909063</v>
       </c>
+      <c r="G153" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C153</f>
+        <v>CKR-1PURNACHANDER GUDISE</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
@@ -5725,6 +6334,10 @@
       <c r="E154" s="0" t="n">
         <v>9676664478</v>
       </c>
+      <c r="G154" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C154</f>
+        <v>CKR-1RAJESHAM EAGA</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
@@ -5742,6 +6355,10 @@
       <c r="E155" s="0" t="n">
         <v>9676717694</v>
       </c>
+      <c r="G155" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C155</f>
+        <v>CKR-1SANTHOSH KUMAR CHUNCHU</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
@@ -5759,6 +6376,10 @@
       <c r="E156" s="0" t="n">
         <v>8985654725</v>
       </c>
+      <c r="G156" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C156</f>
+        <v>CKR-1PARVATHI MADHUKAR</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
@@ -5776,6 +6397,10 @@
       <c r="E157" s="0" t="n">
         <v>9347839042</v>
       </c>
+      <c r="G157" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C157</f>
+        <v>CKR-1BHAVANA KASTURI</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
@@ -5793,6 +6418,10 @@
       <c r="E158" s="0" t="n">
         <v>6303478431</v>
       </c>
+      <c r="G158" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C158</f>
+        <v>CKR-1DIVYA SATTA</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
@@ -5810,6 +6439,10 @@
       <c r="E159" s="0" t="n">
         <v>9866546074</v>
       </c>
+      <c r="G159" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C159</f>
+        <v>CKR-1SWARNALATHA ALLAKONDA</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
@@ -5827,6 +6460,10 @@
       <c r="E160" s="0" t="n">
         <v>9440967119</v>
       </c>
+      <c r="G160" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C160</f>
+        <v>CKR-1RAVI VADLURI</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
@@ -5844,6 +6481,10 @@
       <c r="E161" s="0" t="n">
         <v>9493108523</v>
       </c>
+      <c r="G161" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C161</f>
+        <v>CKR-1RAKESH GUNDETI</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
@@ -5861,6 +6502,10 @@
       <c r="E162" s="0" t="n">
         <v>9948271839</v>
       </c>
+      <c r="G162" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C162</f>
+        <v>CKR-1VAMSHI VEMNURI</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
@@ -5878,6 +6523,10 @@
       <c r="E163" s="0" t="n">
         <v>7702738129</v>
       </c>
+      <c r="G163" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C163</f>
+        <v>CKR-1RAJESH PONNAM</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
@@ -5895,6 +6544,10 @@
       <c r="E164" s="0" t="n">
         <v>8897225197</v>
       </c>
+      <c r="G164" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C164</f>
+        <v>CKR-1NARESH MAMIDIPELLI</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
@@ -5912,6 +6565,10 @@
       <c r="E165" s="0" t="n">
         <v>9963348494</v>
       </c>
+      <c r="G165" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C165</f>
+        <v>CKR-1RAJKUMAR PUDURI</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
@@ -5929,6 +6586,10 @@
       <c r="E166" s="0" t="n">
         <v>9948232388</v>
       </c>
+      <c r="G166" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C166</f>
+        <v>CKR-1KIRAN KUMAR ANKAM</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
@@ -5946,6 +6607,10 @@
       <c r="E167" s="0" t="n">
         <v>9553039890</v>
       </c>
+      <c r="G167" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C167</f>
+        <v>CKR-1MAMATHA CHIKKULAPALLI</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
@@ -5963,6 +6628,10 @@
       <c r="E168" s="0" t="n">
         <v>9491473002</v>
       </c>
+      <c r="G168" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C168</f>
+        <v>CKR-1NAVEEN BHEEMANATHI</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
@@ -5980,6 +6649,10 @@
       <c r="E169" s="0" t="n">
         <v>6301374700</v>
       </c>
+      <c r="G169" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C169</f>
+        <v>CKR-1MAMATHA MITTAPELLI</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
@@ -5997,6 +6670,10 @@
       <c r="E170" s="0" t="n">
         <v>8106763251</v>
       </c>
+      <c r="G170" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C170</f>
+        <v>CKR-1GAJARLA GANGADHAR</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
@@ -6014,6 +6691,10 @@
       <c r="E171" s="0" t="n">
         <v>9542818187</v>
       </c>
+      <c r="G171" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C171</f>
+        <v>CKR-1PRAKASH BANUKA</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
@@ -6031,6 +6712,10 @@
       <c r="E172" s="0" t="n">
         <v>8978335542</v>
       </c>
+      <c r="G172" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C172</f>
+        <v>CKR-1VAMSHI ALAGONDADASARI</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
@@ -6048,6 +6733,10 @@
       <c r="E173" s="0" t="n">
         <v>9640723895</v>
       </c>
+      <c r="G173" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C173</f>
+        <v>CKR-1RAJESH SWARGAM</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
@@ -6065,6 +6754,10 @@
       <c r="E174" s="0" t="n">
         <v>9177396980</v>
       </c>
+      <c r="G174" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C174</f>
+        <v>CKR-1VINEETH NAGELLI</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
@@ -6082,6 +6775,10 @@
       <c r="E175" s="0" t="n">
         <v>6303106968</v>
       </c>
+      <c r="G175" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C175</f>
+        <v>CKR-1ANUGU MAMATHA</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
@@ -6099,6 +6796,10 @@
       <c r="E176" s="0" t="n">
         <v>9666311311</v>
       </c>
+      <c r="G176" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C176</f>
+        <v>CKR-1SIRIPURAM RAKESH</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
@@ -6116,6 +6817,10 @@
       <c r="E177" s="0" t="n">
         <v>9963023683</v>
       </c>
+      <c r="G177" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C177</f>
+        <v>CKR-1PASHULA GANGAIAH</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -6133,6 +6838,10 @@
       <c r="E178" s="0" t="n">
         <v>9849678400</v>
       </c>
+      <c r="G178" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C178</f>
+        <v>CKR-1DINESH NARAPAKA</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
@@ -6150,6 +6859,10 @@
       <c r="E179" s="0" t="n">
         <v>7780267312</v>
       </c>
+      <c r="G179" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C179</f>
+        <v>CKR-1ATHRAM NARSING RAO</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
@@ -6167,6 +6880,10 @@
       <c r="E180" s="0" t="n">
         <v>7032335819</v>
       </c>
+      <c r="G180" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C180</f>
+        <v>CKR-1RAJANNA SHEELAM</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
@@ -6184,6 +6901,10 @@
       <c r="E181" s="0" t="n">
         <v>9618864184</v>
       </c>
+      <c r="G181" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C181</f>
+        <v>CKR-1PUDARI KIRAN</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
@@ -6201,6 +6922,10 @@
       <c r="E182" s="0" t="n">
         <v>9849882099</v>
       </c>
+      <c r="G182" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C182</f>
+        <v>CKR-1PATHA MAHESH</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
@@ -6218,6 +6943,10 @@
       <c r="E183" s="0" t="n">
         <v>7893132243</v>
       </c>
+      <c r="G183" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C183</f>
+        <v>CKR-1THIRUMAL CHEEPIRISHETTI</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
@@ -6235,6 +6964,10 @@
       <c r="E184" s="0" t="n">
         <v>9963157331</v>
       </c>
+      <c r="G184" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C184</f>
+        <v>CKR-1ANUSHA BANDARI</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
@@ -6252,6 +6985,10 @@
       <c r="E185" s="0" t="n">
         <v>9182136207</v>
       </c>
+      <c r="G185" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C185</f>
+        <v>CKR-1PRASHANTH KADARI</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
@@ -6269,6 +7006,10 @@
       <c r="E186" s="0" t="n">
         <v>9640206129</v>
       </c>
+      <c r="G186" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C186</f>
+        <v>CKR-1RAVALI KADARI</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
@@ -6286,6 +7027,10 @@
       <c r="E187" s="0" t="n">
         <v>7095220229</v>
       </c>
+      <c r="G187" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C187</f>
+        <v>CKR-1PADMA MATTA</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
@@ -6303,6 +7048,10 @@
       <c r="E188" s="0" t="n">
         <v>9948537118</v>
       </c>
+      <c r="G188" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C188</f>
+        <v>CKR-1SUMALATHA GUDIKANDULA</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
@@ -6320,6 +7069,10 @@
       <c r="E189" s="0" t="n">
         <v>9550958969</v>
       </c>
+      <c r="G189" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C189</f>
+        <v>CKR-1MAHENDAR CHIRUPOORI</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
@@ -6337,6 +7090,10 @@
       <c r="E190" s="0" t="n">
         <v>6300947694</v>
       </c>
+      <c r="G190" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C190</f>
+        <v>CKR-1LAHARI CHUNCHU</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
@@ -6354,6 +7111,10 @@
       <c r="E191" s="0" t="n">
         <v>7569609980</v>
       </c>
+      <c r="G191" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C191</f>
+        <v>CKR-1RAKESH KUMAR DANTIKE</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
@@ -6371,6 +7132,10 @@
       <c r="E192" s="0" t="n">
         <v>9676828809</v>
       </c>
+      <c r="G192" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C192</f>
+        <v>CKR-1AMUNOORI SHIRISHA</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
@@ -6388,6 +7153,10 @@
       <c r="E193" s="0" t="n">
         <v>7731980775</v>
       </c>
+      <c r="G193" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C193</f>
+        <v>CKR-1GEETHANJALI CHIKRAM</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
@@ -6405,6 +7174,10 @@
       <c r="E194" s="0" t="n">
         <v>9949172866</v>
       </c>
+      <c r="G194" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C194</f>
+        <v>CKR-1MAHESH GADIPELLI</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
@@ -6422,6 +7195,10 @@
       <c r="E195" s="0" t="n">
         <v>9704605620</v>
       </c>
+      <c r="G195" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C195</f>
+        <v>CKR-1MADHU KUMAR VODDIPARTHI</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
@@ -6439,6 +7216,10 @@
       <c r="E196" s="0" t="n">
         <v>8374482621</v>
       </c>
+      <c r="G196" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C196</f>
+        <v>CKR-1BHOOMESHWER SHEELAM</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
@@ -6456,6 +7237,10 @@
       <c r="E197" s="0" t="n">
         <v>9177023140</v>
       </c>
+      <c r="G197" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C197</f>
+        <v>CKR-1SRINIVAS MOTHKURI</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
@@ -6473,6 +7258,10 @@
       <c r="E198" s="0" t="n">
         <v>9182570256</v>
       </c>
+      <c r="G198" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C198</f>
+        <v>CKR-1CHIKRAM RAJU</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
@@ -6490,6 +7279,10 @@
       <c r="E199" s="0" t="n">
         <v>8179522505</v>
       </c>
+      <c r="G199" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C199</f>
+        <v>CKR-1GUDISE SANTHOSH</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
@@ -6507,6 +7300,10 @@
       <c r="E200" s="0" t="n">
         <v>9550914245</v>
       </c>
+      <c r="G200" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C200</f>
+        <v>CKR-1PARVATHI MARU</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
@@ -6524,6 +7321,10 @@
       <c r="E201" s="0" t="n">
         <v>9989021631</v>
       </c>
+      <c r="G201" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C201</f>
+        <v>CKR-1KALYANAPU RANJITH KUMAR</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
@@ -6541,6 +7342,10 @@
       <c r="E202" s="0" t="n">
         <v>9603713279</v>
       </c>
+      <c r="G202" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C202</f>
+        <v>CKR-1BHEEMANNA RACHAMALLA</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
@@ -6558,6 +7363,10 @@
       <c r="E203" s="0" t="n">
         <v>9959975691</v>
       </c>
+      <c r="G203" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C203</f>
+        <v>CKR-1ANISH DYAVANAPELLY</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
@@ -6575,6 +7384,10 @@
       <c r="E204" s="0" t="n">
         <v>8106994477</v>
       </c>
+      <c r="G204" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C204</f>
+        <v>CKR-1MAMIDIPELLI PREM SAGAR</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
@@ -6592,6 +7405,10 @@
       <c r="E205" s="0" t="n">
         <v>8106794579</v>
       </c>
+      <c r="G205" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C205</f>
+        <v>CKR-1SRIVDYA CHIKKULLA</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
@@ -6609,6 +7426,10 @@
       <c r="E206" s="0" t="n">
         <v>9849196001</v>
       </c>
+      <c r="G206" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C206</f>
+        <v>CKR-1JALENDHAR DYANAPELLY</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
@@ -6626,6 +7447,10 @@
       <c r="E207" s="0" t="n">
         <v>9505264241</v>
       </c>
+      <c r="G207" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C207</f>
+        <v>CKR-1VINILKUMAR DOSARAPU</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
@@ -6643,6 +7468,10 @@
       <c r="E208" s="0" t="n">
         <v>9959821665</v>
       </c>
+      <c r="G208" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C208</f>
+        <v>CKR-1POODARI ANIL</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
@@ -6660,6 +7489,10 @@
       <c r="E209" s="0" t="n">
         <v>9963807094</v>
       </c>
+      <c r="G209" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C209</f>
+        <v>CKR-1VENUGOPAL MERUGU</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
@@ -6677,6 +7510,10 @@
       <c r="E210" s="0" t="n">
         <v>9573558683</v>
       </c>
+      <c r="G210" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C210</f>
+        <v>CKR-1SUPRIYA MITTAPELLI</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
@@ -6694,6 +7531,10 @@
       <c r="E211" s="0" t="n">
         <v>9705713571</v>
       </c>
+      <c r="G211" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C211</f>
+        <v>CKR-1MALLESHAM CHUNCHU</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
@@ -6711,6 +7552,10 @@
       <c r="E212" s="0" t="n">
         <v>6281216040</v>
       </c>
+      <c r="G212" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C212</f>
+        <v>CKR-1BARLA RAJU</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
@@ -6728,6 +7573,10 @@
       <c r="E213" s="0" t="n">
         <v>9502641165</v>
       </c>
+      <c r="G213" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C213</f>
+        <v>CKR-1VOLLALA AKHIL GOUD</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
@@ -6745,6 +7594,10 @@
       <c r="E214" s="0" t="n">
         <v>9676782880</v>
       </c>
+      <c r="G214" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C214</f>
+        <v>CKR-1KATLAKUNTA JAGAN</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
@@ -6762,6 +7615,10 @@
       <c r="E215" s="0" t="n">
         <v>8739316977</v>
       </c>
+      <c r="G215" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C215</f>
+        <v>CKR-1SUJATHA BODA</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
@@ -6779,6 +7636,10 @@
       <c r="E216" s="0" t="n">
         <v>9866371220</v>
       </c>
+      <c r="G216" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C216</f>
+        <v>CKR-1LAXMAN CHALLA</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
@@ -6796,6 +7657,10 @@
       <c r="E217" s="0" t="n">
         <v>8978949848</v>
       </c>
+      <c r="G217" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C217</f>
+        <v>CKR-1KATLA KIRAN KUMAR</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
@@ -6813,6 +7678,10 @@
       <c r="E218" s="0" t="n">
         <v>8144934424</v>
       </c>
+      <c r="G218" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C218</f>
+        <v>CKR-1MAHESHWARI KADARI</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
@@ -6830,6 +7699,10 @@
       <c r="E219" s="0" t="n">
         <v>9948561772</v>
       </c>
+      <c r="G219" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C219</f>
+        <v>CKR-1DIVYARANI GUDISE</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
@@ -6847,6 +7720,10 @@
       <c r="E220" s="0" t="n">
         <v>8008043670</v>
       </c>
+      <c r="G220" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C220</f>
+        <v>CKR-1KALYAN CHEPPALA</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
@@ -6864,6 +7741,10 @@
       <c r="E221" s="0" t="n">
         <v>9441164425</v>
       </c>
+      <c r="G221" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C221</f>
+        <v>CKR-1KIRAN VEYYA</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
@@ -6881,6 +7762,10 @@
       <c r="E222" s="0" t="n">
         <v>9390997689</v>
       </c>
+      <c r="G222" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C222</f>
+        <v>CKR-1NITHIN BHEEMANATHI</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
@@ -6898,6 +7783,10 @@
       <c r="E223" s="0" t="n">
         <v>9010914745</v>
       </c>
+      <c r="G223" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C223</f>
+        <v>CKR-1THATI RAVINDHAR</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
@@ -6915,6 +7804,10 @@
       <c r="E224" s="0" t="n">
         <v>9848130310</v>
       </c>
+      <c r="G224" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C224</f>
+        <v>CKR-1RADHA KOMIRE</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
@@ -6932,6 +7825,10 @@
       <c r="E225" s="0" t="n">
         <v>9515532294</v>
       </c>
+      <c r="G225" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C225</f>
+        <v>CKR-1THRIVENI ADEPU</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
@@ -6949,6 +7846,10 @@
       <c r="E226" s="0" t="n">
         <v>8106794579</v>
       </c>
+      <c r="G226" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C226</f>
+        <v>CKR-1BHOOMANNA THOTA</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
@@ -6966,6 +7867,10 @@
       <c r="E227" s="0" t="n">
         <v>7995544356</v>
       </c>
+      <c r="G227" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C227</f>
+        <v>CKR-1NAVYA RAMAKISHTU</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
@@ -6983,6 +7888,10 @@
       <c r="E228" s="0" t="n">
         <v>7675821418</v>
       </c>
+      <c r="G228" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C228</f>
+        <v>CKR-1SWAPNA CHEKKAPELLI</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
@@ -7000,6 +7909,10 @@
       <c r="E229" s="0" t="n">
         <v>9949870515</v>
       </c>
+      <c r="G229" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C229</f>
+        <v>CKR-1DHONTHULA MANOJ KUMAR</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
@@ -7017,6 +7930,10 @@
       <c r="E230" s="0" t="n">
         <v>9705030210</v>
       </c>
+      <c r="G230" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C230</f>
+        <v>CKR-1ASHOK SUNKARIPELLY</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
@@ -7034,6 +7951,10 @@
       <c r="E231" s="0" t="n">
         <v>9441607355</v>
       </c>
+      <c r="G231" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C231</f>
+        <v>CKR-1GANESH AKKINAPELLY</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
@@ -7051,6 +7972,10 @@
       <c r="E232" s="0" t="n">
         <v>9550625479</v>
       </c>
+      <c r="G232" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C232</f>
+        <v>CKR-1GUGGILLA VENKATESH</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
@@ -7068,6 +7993,10 @@
       <c r="E233" s="0" t="n">
         <v>7036933698</v>
       </c>
+      <c r="G233" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C233</f>
+        <v>CKR-1KUMBALA VANUSHA</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
@@ -7085,6 +8014,10 @@
       <c r="E234" s="0" t="n">
         <v>9392396174</v>
       </c>
+      <c r="G234" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C234</f>
+        <v>CKR-1VINEETHA ALIGETI</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
@@ -7102,6 +8035,10 @@
       <c r="E235" s="0" t="n">
         <v>9640206129</v>
       </c>
+      <c r="G235" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C235</f>
+        <v>CKR-1SUBHASH KADARI</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
@@ -7119,6 +8056,10 @@
       <c r="E236" s="0" t="n">
         <v>7702260966</v>
       </c>
+      <c r="G236" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C236</f>
+        <v>CKR-1TODASAM IMMANUEL</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
@@ -7136,6 +8077,10 @@
       <c r="E237" s="0" t="n">
         <v>8790702993</v>
       </c>
+      <c r="G237" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C237</f>
+        <v>CKR-1JAVEED MOHAMMAD</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
@@ -7153,6 +8098,10 @@
       <c r="E238" s="0" t="n">
         <v>9394881518</v>
       </c>
+      <c r="G238" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C238</f>
+        <v>CKR-1SUNKARAPALLY RAVINDAR</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
@@ -7170,6 +8119,10 @@
       <c r="E239" s="0" t="n">
         <v>9848516542</v>
       </c>
+      <c r="G239" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C239</f>
+        <v>CKR-1VENNA KRISHNAVENI</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
@@ -7187,6 +8140,10 @@
       <c r="E240" s="0" t="n">
         <v>9177991419</v>
       </c>
+      <c r="G240" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C240</f>
+        <v>CKR-1RAJENDAR PUDARI</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
@@ -7204,6 +8161,10 @@
       <c r="E241" s="0" t="n">
         <v>8790767339</v>
       </c>
+      <c r="G241" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C241</f>
+        <v>CKR-1RAJENDAR MYADA</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
@@ -7221,6 +8182,10 @@
       <c r="E242" s="0" t="n">
         <v>9866371220</v>
       </c>
+      <c r="G242" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C242</f>
+        <v>CKR-1CHALLA LAXMAN</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
@@ -7238,6 +8203,10 @@
       <c r="E243" s="0" t="n">
         <v>9618631142</v>
       </c>
+      <c r="G243" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C243</f>
+        <v>CKR-1VENKATESH MATETI</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
@@ -7255,6 +8224,10 @@
       <c r="E244" s="0" t="n">
         <v>9573097957</v>
       </c>
+      <c r="G244" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C244</f>
+        <v>CKR-1HARISH GADIPELLI</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
@@ -7272,6 +8245,10 @@
       <c r="E245" s="0" t="n">
         <v>9848837003</v>
       </c>
+      <c r="G245" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C245</f>
+        <v>CKR-1SRINIVAS SIRINENI</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
@@ -7289,6 +8266,10 @@
       <c r="E246" s="0" t="n">
         <v>9951256132</v>
       </c>
+      <c r="G246" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C246</f>
+        <v>CKR-1EDLA SHASHIKUMAR</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
@@ -7306,6 +8287,10 @@
       <c r="E247" s="0" t="n">
         <v>8985432063</v>
       </c>
+      <c r="G247" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C247</f>
+        <v>CKR-1SHAKAPURAPU NARESH</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
@@ -7323,6 +8308,10 @@
       <c r="E248" s="0" t="n">
         <v>7386092817</v>
       </c>
+      <c r="G248" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C248</f>
+        <v>CKR-1KALAMADUGU SANDYA RANI</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
@@ -7340,6 +8329,10 @@
       <c r="E249" s="0" t="n">
         <v>9393739782</v>
       </c>
+      <c r="G249" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C249</f>
+        <v>CKR-1RANI THOTA</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
@@ -7357,6 +8350,10 @@
       <c r="E250" s="0" t="n">
         <v>9701800264</v>
       </c>
+      <c r="G250" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C250</f>
+        <v>CKR-1ALLAKONDA PRIYANKA</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
@@ -7374,6 +8371,10 @@
       <c r="E251" s="0" t="n">
         <v>8096943136</v>
       </c>
+      <c r="G251" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C251</f>
+        <v>CKR-1SURESH MAMIDIPALLY</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
@@ -7391,6 +8392,10 @@
       <c r="E252" s="0" t="n">
         <v>6305598586</v>
       </c>
+      <c r="G252" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C252</f>
+        <v>CKR-1RAJASHEKAR BETHI</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
@@ -7408,6 +8413,10 @@
       <c r="E253" s="0" t="n">
         <v>9948817636</v>
       </c>
+      <c r="G253" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C253</f>
+        <v>CKR-1LACHANNA VEYYA</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
@@ -7425,6 +8434,10 @@
       <c r="E254" s="0" t="n">
         <v>9505728034</v>
       </c>
+      <c r="G254" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C254</f>
+        <v>CKR-1ANITHA GALIPALLY</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
@@ -7442,6 +8455,10 @@
       <c r="E255" s="0" t="n">
         <v>9100722959</v>
       </c>
+      <c r="G255" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C255</f>
+        <v>CKR-1KUNTALA GANGADEVI</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
@@ -7459,6 +8476,10 @@
       <c r="E256" s="0" t="n">
         <v>7032161590</v>
       </c>
+      <c r="G256" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C256</f>
+        <v>CKR-1MANERU SUSHMA</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
@@ -7476,6 +8497,10 @@
       <c r="E257" s="0" t="n">
         <v>9666157387</v>
       </c>
+      <c r="G257" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C257</f>
+        <v>CKR-1RAMA GAJARLA</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
@@ -7493,6 +8518,10 @@
       <c r="E258" s="0" t="n">
         <v>8309552318</v>
       </c>
+      <c r="G258" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C258</f>
+        <v>CKR-1MALLESWARI PURATHULA</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
@@ -7510,6 +8539,10 @@
       <c r="E259" s="0" t="n">
         <v>9010535327</v>
       </c>
+      <c r="G259" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C259</f>
+        <v>CKR-1THIRUPATHI SRIRAMULA</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
@@ -7527,6 +8560,10 @@
       <c r="E260" s="0" t="n">
         <v>9948779901</v>
       </c>
+      <c r="G260" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C260</f>
+        <v>CKR-1PRAVEEN KUMAR GORLA</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
@@ -7544,6 +8581,10 @@
       <c r="E261" s="0" t="n">
         <v>7093408013</v>
       </c>
+      <c r="G261" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C261</f>
+        <v>CKR-1AZMEERA VINOD</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
@@ -7561,6 +8602,10 @@
       <c r="E262" s="0" t="n">
         <v>9550971542</v>
       </c>
+      <c r="G262" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C262</f>
+        <v>CKR-1RAVIKUMAR CHEERNENI</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
@@ -7578,6 +8623,10 @@
       <c r="E263" s="0" t="n">
         <v>9701218641</v>
       </c>
+      <c r="G263" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C263</f>
+        <v>CKR-1KANDHUKURI LAXMAN</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
@@ -7595,6 +8644,10 @@
       <c r="E264" s="0" t="n">
         <v>7993083250</v>
       </c>
+      <c r="G264" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C264</f>
+        <v>CKR-1RAMU MUTHINENI</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
@@ -7612,6 +8665,10 @@
       <c r="E265" s="0" t="n">
         <v>9849216163</v>
       </c>
+      <c r="G265" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C265</f>
+        <v>CKR-1PRASHANTH GORLA</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
@@ -7629,6 +8686,10 @@
       <c r="E266" s="0" t="n">
         <v>9704605945</v>
       </c>
+      <c r="G266" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C266</f>
+        <v>CKR-1SOWMYA TOGITI</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
@@ -7646,6 +8707,10 @@
       <c r="E267" s="0" t="n">
         <v>8008636139</v>
       </c>
+      <c r="G267" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C267</f>
+        <v>CKR-1MOUNIKA CHEKKAPELLI</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
@@ -7663,6 +8728,10 @@
       <c r="E268" s="0" t="n">
         <v>8374192137</v>
       </c>
+      <c r="G268" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C268</f>
+        <v>CKR-1SAINAVENI PRADEEP SAINAVENI</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
@@ -7680,6 +8749,10 @@
       <c r="E269" s="0" t="n">
         <v>7013584548</v>
       </c>
+      <c r="G269" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C269</f>
+        <v>CKR-1SATYANARAYANA E</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
@@ -7697,6 +8770,10 @@
       <c r="E270" s="0" t="n">
         <v>9391093971</v>
       </c>
+      <c r="G270" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C270</f>
+        <v>CKR-1POORNACHANDHER GANGADHARI</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
@@ -7714,6 +8791,10 @@
       <c r="E271" s="0" t="n">
         <v>8501020798</v>
       </c>
+      <c r="G271" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C271</f>
+        <v>CKR-1MATURI GANGADHAR</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
@@ -7731,6 +8812,10 @@
       <c r="E272" s="0" t="n">
         <v>7032335819</v>
       </c>
+      <c r="G272" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C272</f>
+        <v>CKR-1BHASKAR VEYYA</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
@@ -7748,6 +8833,10 @@
       <c r="E273" s="0" t="n">
         <v>9618759283</v>
       </c>
+      <c r="G273" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C273</f>
+        <v>CKR-1MOTHE VINOD</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
@@ -7765,6 +8854,10 @@
       <c r="E274" s="0" t="n">
         <v>8790210815</v>
       </c>
+      <c r="G274" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C274</f>
+        <v>CKR-1PRASUNA SUDA</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
@@ -7782,6 +8875,10 @@
       <c r="E275" s="0" t="n">
         <v>9912528533</v>
       </c>
+      <c r="G275" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C275</f>
+        <v>CKR-1DIVYA MENDU</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
@@ -7799,6 +8896,10 @@
       <c r="E276" s="0" t="n">
         <v>8019690284</v>
       </c>
+      <c r="G276" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C276</f>
+        <v>CKR-1RAVEENA KOTHA</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
@@ -7816,6 +8917,10 @@
       <c r="E277" s="0" t="n">
         <v>8008191166</v>
       </c>
+      <c r="G277" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C277</f>
+        <v>CKR-1MALLESH GUDISE</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
@@ -7833,6 +8938,10 @@
       <c r="E278" s="0" t="n">
         <v>9989729833</v>
       </c>
+      <c r="G278" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C278</f>
+        <v>CKR-1SWAPNA EESAMPALLI</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
@@ -7850,6 +8959,10 @@
       <c r="E279" s="0" t="n">
         <v>9704633506</v>
       </c>
+      <c r="G279" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C279</f>
+        <v>CKR-1GOPAL JANGILI</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
@@ -7867,6 +8980,10 @@
       <c r="E280" s="0" t="n">
         <v>8919953111</v>
       </c>
+      <c r="G280" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C280</f>
+        <v>CKR-1BOGA LAVANYA</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
@@ -7884,6 +9001,10 @@
       <c r="E281" s="0" t="n">
         <v>7095444017</v>
       </c>
+      <c r="G281" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C281</f>
+        <v>CKR-1MAHESH</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
@@ -7901,6 +9022,10 @@
       <c r="E282" s="0" t="n">
         <v>8008821947</v>
       </c>
+      <c r="G282" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C282</f>
+        <v>CKR-1RAJESH AKKINAPELLY</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
@@ -7918,6 +9043,10 @@
       <c r="E283" s="0" t="n">
         <v>7288968080</v>
       </c>
+      <c r="G283" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C283</f>
+        <v>CKR-1MAMATHA CHEERNENI</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
@@ -7935,6 +9064,10 @@
       <c r="E284" s="0" t="n">
         <v>9989248126</v>
       </c>
+      <c r="G284" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C284</f>
+        <v>CKR-1ROOPU RAJITHA</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
@@ -7952,6 +9085,10 @@
       <c r="E285" s="0" t="n">
         <v>7382324426</v>
       </c>
+      <c r="G285" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C285</f>
+        <v>CKR-1RAMESH NAGAVATH</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
@@ -7969,6 +9106,10 @@
       <c r="E286" s="0" t="n">
         <v>8008221618</v>
       </c>
+      <c r="G286" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C286</f>
+        <v>CKR-1VIGNESH MERUGU</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
@@ -7986,6 +9127,10 @@
       <c r="E287" s="0" t="n">
         <v>9010575300</v>
       </c>
+      <c r="G287" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C287</f>
+        <v>CKR-1RAJENDHER GAJULA</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
@@ -8003,6 +9148,10 @@
       <c r="E288" s="0" t="n">
         <v>9848531503</v>
       </c>
+      <c r="G288" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C288</f>
+        <v>CKR-1NARIMATLA SATHEESH</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
@@ -8020,6 +9169,10 @@
       <c r="E289" s="0" t="n">
         <v>7729889609</v>
       </c>
+      <c r="G289" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C289</f>
+        <v>CKR-1JANGILI VINEETH YADHAV</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
@@ -8037,6 +9190,10 @@
       <c r="E290" s="0" t="n">
         <v>7013884762</v>
       </c>
+      <c r="G290" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C290</f>
+        <v>CKR-1RAMYA GUNDA</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
@@ -8054,6 +9211,10 @@
       <c r="E291" s="0" t="n">
         <v>8465820589</v>
       </c>
+      <c r="G291" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C291</f>
+        <v>CKR-1SRINIVAS EDULAKANTI</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
@@ -8071,6 +9232,10 @@
       <c r="E292" s="0" t="n">
         <v>8790565405</v>
       </c>
+      <c r="G292" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C292</f>
+        <v>CKR-1HARISH CHUNCHU</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
@@ -8088,6 +9253,10 @@
       <c r="E293" s="0" t="n">
         <v>9490222042</v>
       </c>
+      <c r="G293" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C293</f>
+        <v>CKR-1NAGABHOOSHANAM SIRUPA</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
@@ -8105,6 +9274,10 @@
       <c r="E294" s="0" t="n">
         <v>9908759709</v>
       </c>
+      <c r="G294" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C294</f>
+        <v>CKR-1SRAVANTHI KANCHI</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
@@ -8122,6 +9295,10 @@
       <c r="E295" s="0" t="n">
         <v>8374576773</v>
       </c>
+      <c r="G295" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C295</f>
+        <v>CKR-1RANJITH GUNDA</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
@@ -8139,6 +9316,10 @@
       <c r="E296" s="0" t="n">
         <v>9705713571</v>
       </c>
+      <c r="G296" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C296</f>
+        <v>CKR-1MAMATHA PASHAM</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
@@ -8156,6 +9337,10 @@
       <c r="E297" s="0" t="n">
         <v>9866851040</v>
       </c>
+      <c r="G297" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C297</f>
+        <v>CKR-1BHEEMANATHI LAVAN</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
@@ -8173,6 +9358,10 @@
       <c r="E298" s="0" t="n">
         <v>9059732904</v>
       </c>
+      <c r="G298" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C298</f>
+        <v>CKR-1GANGASRI MAMIDIPELLY</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
@@ -8190,6 +9379,10 @@
       <c r="E299" s="0" t="n">
         <v>7032328492</v>
       </c>
+      <c r="G299" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C299</f>
+        <v>CKR-1LATHA ADEPU</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
@@ -8207,6 +9400,10 @@
       <c r="E300" s="0" t="n">
         <v>9550544103</v>
       </c>
+      <c r="G300" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C300</f>
+        <v>CKR-1SOODA SHARATH</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
@@ -8224,6 +9421,10 @@
       <c r="E301" s="0" t="n">
         <v>7382324426</v>
       </c>
+      <c r="G301" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C301</f>
+        <v>CKR-1RATHOD ASHWINI</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
@@ -8241,6 +9442,10 @@
       <c r="E302" s="0" t="n">
         <v>9542774982</v>
       </c>
+      <c r="G302" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C302</f>
+        <v>CKR-1SUNITHA CH</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
@@ -8258,6 +9463,10 @@
       <c r="E303" s="0" t="n">
         <v>8179779002</v>
       </c>
+      <c r="G303" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C303</f>
+        <v>CKR-1MANASA THATI</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
@@ -8275,6 +9484,10 @@
       <c r="E304" s="0" t="n">
         <v>9492985034</v>
       </c>
+      <c r="G304" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C304</f>
+        <v>CKR-1BHEEMARAJAM ARMOOR</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
@@ -8292,6 +9505,10 @@
       <c r="E305" s="0" t="n">
         <v>9182601094</v>
       </c>
+      <c r="G305" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C305</f>
+        <v>CKR-1HARISH PUDARI</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
@@ -8309,6 +9526,10 @@
       <c r="E306" s="0" t="n">
         <v>9700183838</v>
       </c>
+      <c r="G306" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C306</f>
+        <v>CKR-1DILEEP YADAV CHERUPURI</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
@@ -8326,6 +9547,10 @@
       <c r="E307" s="0" t="n">
         <v>7997495062</v>
       </c>
+      <c r="G307" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C307</f>
+        <v>CKR-1KATLAKUNTA GANGAJALA</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
@@ -8343,6 +9568,10 @@
       <c r="E308" s="0" t="n">
         <v>9949144982</v>
       </c>
+      <c r="G308" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C308</f>
+        <v>CKR-1RAMESH ADEPU</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
@@ -8360,6 +9589,10 @@
       <c r="E309" s="0" t="n">
         <v>9440514521</v>
       </c>
+      <c r="G309" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C309</f>
+        <v>CKR-1SRINIVAS AKKINAPELLY</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
@@ -8377,6 +9610,10 @@
       <c r="E310" s="0" t="n">
         <v>9912430202</v>
       </c>
+      <c r="G310" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C310</f>
+        <v>CKR-1RAJESH CHERUPOORI</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
@@ -8394,6 +9631,10 @@
       <c r="E311" s="0" t="n">
         <v>8790130321</v>
       </c>
+      <c r="G311" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C311</f>
+        <v>CKR-1MANTHENA ROHITH</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
@@ -8411,6 +9652,10 @@
       <c r="E312" s="0" t="n">
         <v>9010510753</v>
       </c>
+      <c r="G312" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C312</f>
+        <v>CKR-1SWATHI SIRINENI</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
@@ -8428,6 +9673,10 @@
       <c r="E313" s="0" t="n">
         <v>9505390397</v>
       </c>
+      <c r="G313" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C313</f>
+        <v>CKR-1MADHUKAR CHUNCHU</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
@@ -8445,6 +9694,10 @@
       <c r="E314" s="0" t="n">
         <v>9908314327</v>
       </c>
+      <c r="G314" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C314</f>
+        <v>CKR-1THIRUPATHY JUMBARTHY</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
@@ -8462,6 +9715,10 @@
       <c r="E315" s="0" t="n">
         <v>9490865286</v>
       </c>
+      <c r="G315" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C315</f>
+        <v>CKR-1ADEPU KUMAR</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
@@ -8479,6 +9736,10 @@
       <c r="E316" s="0" t="n">
         <v>9949200389</v>
       </c>
+      <c r="G316" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C316</f>
+        <v>CKR-1UYYALA RAJAIAH</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
@@ -8496,6 +9757,10 @@
       <c r="E317" s="0" t="n">
         <v>9494992932</v>
       </c>
+      <c r="G317" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C317</f>
+        <v>CKR-1SANIGARAPU ASHWINI</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
@@ -8513,6 +9778,10 @@
       <c r="E318" s="0" t="n">
         <v>9553624461</v>
       </c>
+      <c r="G318" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C318</f>
+        <v>CKR-1SURESH ALIGETI</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
@@ -8530,6 +9799,10 @@
       <c r="E319" s="0" t="n">
         <v>9502751853</v>
       </c>
+      <c r="G319" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C319</f>
+        <v>CKR-1SRIVIDYA KORUKANTI</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
@@ -8547,6 +9820,10 @@
       <c r="E320" s="0" t="n">
         <v>9492650795</v>
       </c>
+      <c r="G320" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C320</f>
+        <v>CKR-1MURALI MOHAN GODUGU</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
@@ -8564,6 +9841,10 @@
       <c r="E321" s="0" t="n">
         <v>9030527001</v>
       </c>
+      <c r="G321" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C321</f>
+        <v>CKR-1DEVARAJAM ADDAGATLA</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
@@ -8581,6 +9862,10 @@
       <c r="E322" s="0" t="n">
         <v>9603885273</v>
       </c>
+      <c r="G322" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C322</f>
+        <v>CKR-1NAGESH CHEERNENI</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
@@ -8598,6 +9883,10 @@
       <c r="E323" s="0" t="n">
         <v>9701816337</v>
       </c>
+      <c r="G323" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C323</f>
+        <v>CKR-1VANAJA MADDULAPALLY</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
@@ -8615,6 +9904,10 @@
       <c r="E324" s="0" t="n">
         <v>9949933171</v>
       </c>
+      <c r="G324" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C324</f>
+        <v>CKR-1NARESH BANOTH</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
@@ -8632,6 +9925,10 @@
       <c r="E325" s="0" t="n">
         <v>9866323913</v>
       </c>
+      <c r="G325" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C325</f>
+        <v>CKR-1BOSARAPU VIJAY KUMAR</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
@@ -8649,6 +9946,10 @@
       <c r="E326" s="0" t="n">
         <v>9492364081</v>
       </c>
+      <c r="G326" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C326</f>
+        <v>CKR-1DEEPIKA DHONTHULA</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
@@ -8666,6 +9967,10 @@
       <c r="E327" s="0" t="n">
         <v>9492985589</v>
       </c>
+      <c r="G327" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C327</f>
+        <v>CKR-1SREENIVAS KANDUKURI</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
@@ -8683,6 +9988,10 @@
       <c r="E328" s="0" t="n">
         <v>9440391690</v>
       </c>
+      <c r="G328" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C328</f>
+        <v>CKR-1SURYA PRASAD RAO VANAPELLI</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
@@ -8700,6 +10009,10 @@
       <c r="E329" s="0" t="n">
         <v>9704035536</v>
       </c>
+      <c r="G329" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C329</f>
+        <v>CKR-1SRAVANTHI THOGITI</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
@@ -8717,6 +10030,10 @@
       <c r="E330" s="0" t="n">
         <v>9849504091</v>
       </c>
+      <c r="G330" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C330</f>
+        <v>CKR-1PRANAY KUMAR YADAV MUKKA</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
@@ -8734,6 +10051,10 @@
       <c r="E331" s="0" t="n">
         <v>8179773560</v>
       </c>
+      <c r="G331" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C331</f>
+        <v>CKR-1THIRUMALA AJAY</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
@@ -8751,6 +10072,10 @@
       <c r="E332" s="0" t="n">
         <v>9705881107</v>
       </c>
+      <c r="G332" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C332</f>
+        <v>CKR-1MASARTHI SONIA</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
@@ -8768,6 +10093,10 @@
       <c r="E333" s="0" t="n">
         <v>8897515372</v>
       </c>
+      <c r="G333" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C333</f>
+        <v>CKR-1CHANDRAMOULI BADINAPELLI</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
@@ -8785,6 +10114,10 @@
       <c r="E334" s="0" t="n">
         <v>8790603983</v>
       </c>
+      <c r="G334" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C334</f>
+        <v>CKR-1VENKATESH THUPAKULA</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
@@ -8802,6 +10135,10 @@
       <c r="E335" s="0" t="n">
         <v>9701775283</v>
       </c>
+      <c r="G335" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C335</f>
+        <v>CKR-1SRIVANI AJMEERA</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
@@ -8819,6 +10156,10 @@
       <c r="E336" s="0" t="n">
         <v>9133582895</v>
       </c>
+      <c r="G336" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C336</f>
+        <v>CKR-1MYADA MAMATHA</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
@@ -8836,6 +10177,10 @@
       <c r="E337" s="0" t="n">
         <v>9441168246</v>
       </c>
+      <c r="G337" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C337</f>
+        <v>CKR-1GANGAIAH CHEKKA PELLI</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
@@ -8853,6 +10198,10 @@
       <c r="E338" s="0" t="n">
         <v>8790767339</v>
       </c>
+      <c r="G338" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C338</f>
+        <v>CKR-1PRIYANKA THOTA</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
@@ -8870,6 +10219,10 @@
       <c r="E339" s="0" t="n">
         <v>9866323913</v>
       </c>
+      <c r="G339" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C339</f>
+        <v>CKR-1VIJAYKUMAR DOSARAPU</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
@@ -8887,6 +10240,10 @@
       <c r="E340" s="0" t="n">
         <v>9652363740</v>
       </c>
+      <c r="G340" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C340</f>
+        <v>CKR-1PUDURI MALLESH</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
@@ -8904,6 +10261,10 @@
       <c r="E341" s="0" t="n">
         <v>9490183323</v>
       </c>
+      <c r="G341" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C341</f>
+        <v>CKR-1ANUGU MAHENDER</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
@@ -8921,6 +10282,10 @@
       <c r="E342" s="0" t="n">
         <v>9177581372</v>
       </c>
+      <c r="G342" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C342</f>
+        <v>CKR-1RAKESH BANDI</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
@@ -8938,6 +10303,10 @@
       <c r="E343" s="0" t="n">
         <v>8106163407</v>
       </c>
+      <c r="G343" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C343</f>
+        <v>CKR-1GANGADHAR KATUKAM</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
@@ -8955,6 +10324,10 @@
       <c r="E344" s="0" t="n">
         <v>9652404930</v>
       </c>
+      <c r="G344" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C344</f>
+        <v>CKR-1SRINIVAS GUNDARAPU</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
@@ -8972,6 +10345,10 @@
       <c r="E345" s="0" t="n">
         <v>7337567220</v>
       </c>
+      <c r="G345" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C345</f>
+        <v>CKR-1NIREKSHANA BEKAM</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
@@ -8989,6 +10366,10 @@
       <c r="E346" s="0" t="n">
         <v>9959531580</v>
       </c>
+      <c r="G346" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C346</f>
+        <v>CKR-1AZMEERA SUDHAKAR NAYAK</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
@@ -9006,6 +10387,10 @@
       <c r="E347" s="0" t="n">
         <v>9000301714</v>
       </c>
+      <c r="G347" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C347</f>
+        <v>CKR-1SUMITRA ANNAM</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
@@ -9023,6 +10408,10 @@
       <c r="E348" s="0" t="n">
         <v>8978738948</v>
       </c>
+      <c r="G348" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C348</f>
+        <v>CKR-1CHAKAPURAM SUMALATHA</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
@@ -9040,6 +10429,10 @@
       <c r="E349" s="0" t="n">
         <v>9878739848</v>
       </c>
+      <c r="G349" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C349</f>
+        <v>CKR-1CH SATHEESH CHAKAPURAM</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
@@ -9057,6 +10450,10 @@
       <c r="E350" s="0" t="n">
         <v>9603880313</v>
       </c>
+      <c r="G350" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C350</f>
+        <v>CKR-1SHIRISHA SHANIGARAPU</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
@@ -9074,6 +10471,10 @@
       <c r="E351" s="0" t="n">
         <v>9573406306</v>
       </c>
+      <c r="G351" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C351</f>
+        <v>CKR-1RAKESH KUMMARIPALLI</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
@@ -9091,6 +10492,10 @@
       <c r="E352" s="0" t="n">
         <v>8106140904</v>
       </c>
+      <c r="G352" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C352</f>
+        <v>CKR-1BOGA SAI KRISHNA</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
@@ -9108,6 +10513,10 @@
       <c r="E353" s="0" t="n">
         <v>9515543010</v>
       </c>
+      <c r="G353" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C353</f>
+        <v>CKR-1VILAKAR GUDISE</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
@@ -9125,6 +10534,10 @@
       <c r="E354" s="0" t="n">
         <v>8125917346</v>
       </c>
+      <c r="G354" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C354</f>
+        <v>CKR-1SINDHUJA MAKKAYI</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
@@ -9142,6 +10555,10 @@
       <c r="E355" s="0" t="n">
         <v>9963382220</v>
       </c>
+      <c r="G355" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C355</f>
+        <v>CKR-1ANJAIAH BODASU</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
@@ -9159,6 +10576,10 @@
       <c r="E356" s="0" t="n">
         <v>8688704349</v>
       </c>
+      <c r="G356" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C356</f>
+        <v>CKR-1ARMUR GANESH</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
@@ -9176,6 +10597,10 @@
       <c r="E357" s="0" t="n">
         <v>7995930475</v>
       </c>
+      <c r="G357" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C357</f>
+        <v>CKR-1CHEERNENI MOUNIKA CHEERNENI</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
@@ -9193,6 +10618,10 @@
       <c r="E358" s="0" t="n">
         <v>8106482083</v>
       </c>
+      <c r="G358" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C358</f>
+        <v>CKR-1SANDEEP KOLAKANI</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
@@ -9210,6 +10639,10 @@
       <c r="E359" s="0" t="n">
         <v>9948636489</v>
       </c>
+      <c r="G359" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C359</f>
+        <v>CKR-1SANDYA HIMABINDU PEDDITI</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
@@ -9227,6 +10660,10 @@
       <c r="E360" s="0" t="n">
         <v>8897023936</v>
       </c>
+      <c r="G360" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C360</f>
+        <v>CKR-1NARESH POLASA</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
@@ -9244,6 +10681,10 @@
       <c r="E361" s="0" t="n">
         <v>8466924392</v>
       </c>
+      <c r="G361" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C361</f>
+        <v>CKR-1MAMATHA DUMPETA</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
@@ -9261,6 +10702,10 @@
       <c r="E362" s="0" t="n">
         <v>7989527357</v>
       </c>
+      <c r="G362" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C362</f>
+        <v>CKR-1MASARTHI ANITHA</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
@@ -9278,6 +10723,10 @@
       <c r="E363" s="0" t="n">
         <v>9032893946</v>
       </c>
+      <c r="G363" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C363</f>
+        <v>CKR-1SREEVANI PONAKANTI</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
@@ -9295,6 +10744,10 @@
       <c r="E364" s="0" t="n">
         <v>9603958595</v>
       </c>
+      <c r="G364" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C364</f>
+        <v>CKR-1CHINTHALA SANDHYARANI</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="n">
@@ -9312,6 +10765,10 @@
       <c r="E365" s="0" t="n">
         <v>8096431539</v>
       </c>
+      <c r="G365" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C365</f>
+        <v>CKR-1SRINIVAS PEDDURI</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="n">
@@ -9329,6 +10786,10 @@
       <c r="E366" s="0" t="n">
         <v>7660038191</v>
       </c>
+      <c r="G366" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C366</f>
+        <v>CKR-1SRILEKHA NOORA</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
@@ -9346,6 +10807,10 @@
       <c r="E367" s="0" t="n">
         <v>9848405343</v>
       </c>
+      <c r="G367" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C367</f>
+        <v>CKR-1RAJENDRA PRASAD R ROUTHU</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="n">
@@ -9363,6 +10828,10 @@
       <c r="E368" s="0" t="n">
         <v>9963493307</v>
       </c>
+      <c r="G368" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C368</f>
+        <v>CKR-1SURESH RANGU</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="n">
@@ -9380,6 +10849,10 @@
       <c r="E369" s="0" t="n">
         <v>9948636489</v>
       </c>
+      <c r="G369" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C369</f>
+        <v>CKR-1RANJITH ROUTH</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="n">
@@ -9397,6 +10870,10 @@
       <c r="E370" s="0" t="n">
         <v>8317560314</v>
       </c>
+      <c r="G370" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C370</f>
+        <v>CKR-1GOSKULA AKSHAYA GOSKULA</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
@@ -9414,6 +10891,10 @@
       <c r="E371" s="0" t="n">
         <v>8096247632</v>
       </c>
+      <c r="G371" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C371</f>
+        <v>CKR-1SHEELAM MADHUKAR</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
@@ -9431,6 +10912,10 @@
       <c r="E372" s="0" t="n">
         <v>9505264241</v>
       </c>
+      <c r="G372" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C372</f>
+        <v>CKR-1DOSARAPU VINIL KUMAR</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
@@ -9448,6 +10933,10 @@
       <c r="E373" s="0" t="n">
         <v>9908691618</v>
       </c>
+      <c r="G373" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C373</f>
+        <v>CKR-1CHIKKULA SURENDER</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
@@ -9465,6 +10954,10 @@
       <c r="E374" s="0" t="n">
         <v>7036058478</v>
       </c>
+      <c r="G374" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C374</f>
+        <v>CKR-1KOTTE MANASA</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
@@ -9482,6 +10975,10 @@
       <c r="E375" s="0" t="n">
         <v>9959168404</v>
       </c>
+      <c r="G375" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C375</f>
+        <v>CKR-1LINGANNA KATLAKUNTA</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
@@ -9499,6 +10996,10 @@
       <c r="E376" s="0" t="n">
         <v>9652803650</v>
       </c>
+      <c r="G376" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C376</f>
+        <v>CKR-1RAMESH NARAPAKA</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="n">
@@ -9516,6 +11017,10 @@
       <c r="E377" s="0" t="n">
         <v>9553624461</v>
       </c>
+      <c r="G377" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C377</f>
+        <v>CKR-1VINEETHA SAMBARI</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
@@ -9533,6 +11038,10 @@
       <c r="E378" s="0" t="n">
         <v>9949593590</v>
       </c>
+      <c r="G378" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C378</f>
+        <v>CKR-1PRIYANKA BANDELA</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
@@ -9550,6 +11059,10 @@
       <c r="E379" s="0" t="n">
         <v>8374098685</v>
       </c>
+      <c r="G379" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C379</f>
+        <v>CKR-1RAJENDER MANTHRI</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
@@ -9567,6 +11080,10 @@
       <c r="E380" s="0" t="n">
         <v>8500816198</v>
       </c>
+      <c r="G380" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C380</f>
+        <v>CKR-1RANI BEJJARAPU</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="n">
@@ -9584,6 +11101,10 @@
       <c r="E381" s="0" t="n">
         <v>7013350669</v>
       </c>
+      <c r="G381" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C381</f>
+        <v>CKR-1SAIKUMAR AKULA</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
@@ -9601,6 +11122,10 @@
       <c r="E382" s="0" t="n">
         <v>9505425268</v>
       </c>
+      <c r="G382" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C382</f>
+        <v>CKR-1GOSKULA RAKESH GOSKULA</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
@@ -9618,6 +11143,10 @@
       <c r="E383" s="0" t="n">
         <v>8897046545</v>
       </c>
+      <c r="G383" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C383</f>
+        <v>CKR-1VARUNKUMAR MERUGU</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
@@ -9635,6 +11164,10 @@
       <c r="E384" s="0" t="n">
         <v>9704507556</v>
       </c>
+      <c r="G384" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C384</f>
+        <v>CKR-1JAGAN AJMEERA</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
@@ -9652,6 +11185,10 @@
       <c r="E385" s="0" t="n">
         <v>9010259195</v>
       </c>
+      <c r="G385" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C385</f>
+        <v>CKR-1ARSHAKOTA AKSHAYA</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="n">
@@ -9669,6 +11206,10 @@
       <c r="E386" s="0" t="n">
         <v>9381066801</v>
       </c>
+      <c r="G386" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C386</f>
+        <v>CKR-1SRUTHI KANTLAKUNTA</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="n">
@@ -9686,6 +11227,10 @@
       <c r="E387" s="0" t="n">
         <v>8374705646</v>
       </c>
+      <c r="G387" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C387</f>
+        <v>CKR-1JAMUNA GUNDARAPU</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="n">
@@ -9703,6 +11248,10 @@
       <c r="E388" s="0" t="n">
         <v>8790637894</v>
       </c>
+      <c r="G388" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C388</f>
+        <v>CKR-1CHEERNENI SHEKHAR</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
@@ -9720,6 +11269,10 @@
       <c r="E389" s="0" t="n">
         <v>9550625440</v>
       </c>
+      <c r="G389" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C389</f>
+        <v>CKR-1TADUKA MALLESHAM</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="n">
@@ -9737,6 +11290,10 @@
       <c r="E390" s="0" t="n">
         <v>9951188127</v>
       </c>
+      <c r="G390" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C390</f>
+        <v>CKR-1BASWARAJULA NARESH</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="n">
@@ -9754,6 +11311,10 @@
       <c r="E391" s="0" t="n">
         <v>8179558285</v>
       </c>
+      <c r="G391" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C391</f>
+        <v>CKR-1NAVEEN KUMAR RAO POLSANI</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="n">
@@ -9771,6 +11332,10 @@
       <c r="E392" s="0" t="n">
         <v>9542821531</v>
       </c>
+      <c r="G392" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C392</f>
+        <v>CKR-1MANCHALA AKSHAYA</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="n">
@@ -9788,6 +11353,10 @@
       <c r="E393" s="0" t="n">
         <v>8008821947</v>
       </c>
+      <c r="G393" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C393</f>
+        <v>CKR-1DIVYA AKKINAPELLI</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="n">
@@ -9805,6 +11374,10 @@
       <c r="E394" s="0" t="n">
         <v>8464078507</v>
       </c>
+      <c r="G394" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C394</f>
+        <v>CKR-1SAMALA MADHU</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
@@ -9822,6 +11395,10 @@
       <c r="E395" s="0" t="n">
         <v>7993650515</v>
       </c>
+      <c r="G395" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C395</f>
+        <v>CKR-1SWAPNA BHUMULA</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
@@ -9839,6 +11416,10 @@
       <c r="E396" s="0" t="n">
         <v>6281965362</v>
       </c>
+      <c r="G396" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C396</f>
+        <v>CKR-1MADHUKAR THATI</v>
+      </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="n">
@@ -9856,6 +11437,10 @@
       <c r="E397" s="0" t="n">
         <v>9705865556</v>
       </c>
+      <c r="G397" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C397</f>
+        <v>CKR-1JYOTHI KANNOJU</v>
+      </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="n">
@@ -9873,6 +11458,10 @@
       <c r="E398" s="0" t="n">
         <v>7731820987</v>
       </c>
+      <c r="G398" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C398</f>
+        <v>CKR-1RAMESH MADASU</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="n">
@@ -9890,6 +11479,10 @@
       <c r="E399" s="0" t="n">
         <v>9640053966</v>
       </c>
+      <c r="G399" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C399</f>
+        <v>CKR-1LAXMAN NARAPAKA</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
@@ -9907,6 +11500,10 @@
       <c r="E400" s="0" t="n">
         <v>9553938181</v>
       </c>
+      <c r="G400" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C400</f>
+        <v>CKR-1PUDHARI JAGADHISH</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
@@ -9924,6 +11521,10 @@
       <c r="E401" s="0" t="n">
         <v>9573551955</v>
       </c>
+      <c r="G401" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C401</f>
+        <v>CKR-1SAMALLA KRISHNA</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="n">
@@ -9941,6 +11542,10 @@
       <c r="E402" s="0" t="n">
         <v>9951447736</v>
       </c>
+      <c r="G402" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C402</f>
+        <v>CKR-1MAMATHA KONDA</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
@@ -9958,6 +11563,10 @@
       <c r="E403" s="0" t="n">
         <v>7729096414</v>
       </c>
+      <c r="G403" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C403</f>
+        <v>CKR-1RAGULA NAVEEN</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="n">
@@ -9975,6 +11584,10 @@
       <c r="E404" s="0" t="n">
         <v>7702705494</v>
       </c>
+      <c r="G404" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C404</f>
+        <v>CKR-1SHEKAR VOLLALA</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="n">
@@ -9992,6 +11605,10 @@
       <c r="E405" s="0" t="n">
         <v>8463921810</v>
       </c>
+      <c r="G405" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C405</f>
+        <v>CKR-1GUMMULA RAMESH</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="n">
@@ -10009,6 +11626,10 @@
       <c r="E406" s="0" t="n">
         <v>9515201794</v>
       </c>
+      <c r="G406" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C406</f>
+        <v>CKR-1JYOTHSNA PUDURI</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="n">
@@ -10026,6 +11647,10 @@
       <c r="E407" s="0" t="n">
         <v>9989873467</v>
       </c>
+      <c r="G407" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C407</f>
+        <v>CKR-1GUMMULA SRILATHA</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
@@ -10043,6 +11668,10 @@
       <c r="E408" s="0" t="n">
         <v>9010937948</v>
       </c>
+      <c r="G408" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C408</f>
+        <v>CKR-1SRINIVAS DUMPETA</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
@@ -10060,6 +11689,10 @@
       <c r="E409" s="0" t="n">
         <v>9949214905</v>
       </c>
+      <c r="G409" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C409</f>
+        <v>CKR-1KISHORE GANGADHARI</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="n">
@@ -10077,6 +11710,10 @@
       <c r="E410" s="0" t="n">
         <v>7989235069</v>
       </c>
+      <c r="G410" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C410</f>
+        <v>CKR-1UDAY KUMAR YADAV EDLA</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="n">
@@ -10094,6 +11731,10 @@
       <c r="E411" s="0" t="n">
         <v>9392999108</v>
       </c>
+      <c r="G411" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C411</f>
+        <v>CKR-1KATUKAM RAJITHA</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="n">
@@ -10111,6 +11752,10 @@
       <c r="E412" s="0" t="n">
         <v>7842481390</v>
       </c>
+      <c r="G412" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C412</f>
+        <v>CKR-1SANTHOSH BHEEMANATHI</v>
+      </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="n">
@@ -10128,6 +11773,10 @@
       <c r="E413" s="0" t="n">
         <v>8919120765</v>
       </c>
+      <c r="G413" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C413</f>
+        <v>CKR-1MARUTHI</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="n">
@@ -10145,6 +11794,10 @@
       <c r="E414" s="0" t="n">
         <v>9618993677</v>
       </c>
+      <c r="G414" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C414</f>
+        <v>CKR-1NAVEEN GOSKULA</v>
+      </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="n">
@@ -10162,6 +11815,10 @@
       <c r="E415" s="0" t="n">
         <v>9573406306</v>
       </c>
+      <c r="G415" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C415</f>
+        <v>CKR-1RAKESH KUMMARIPALLI</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="n">
@@ -10179,6 +11836,10 @@
       <c r="E416" s="0" t="n">
         <v>9000009931</v>
       </c>
+      <c r="G416" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C416</f>
+        <v>CKR-1SHANKAR MUKKA</v>
+      </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="n">
@@ -10196,6 +11857,10 @@
       <c r="E417" s="0" t="n">
         <v>9505055625</v>
       </c>
+      <c r="G417" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C417</f>
+        <v>CKR-1SANTHOSH THOTA</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="n">
@@ -10213,6 +11878,10 @@
       <c r="E418" s="0" t="n">
         <v>9505728034</v>
       </c>
+      <c r="G418" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C418</f>
+        <v>CKR-1SATYANARAYANA MATETI</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="n">
@@ -10230,6 +11899,10 @@
       <c r="E419" s="0" t="n">
         <v>7674095053</v>
       </c>
+      <c r="G419" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C419</f>
+        <v>CKR-1SAMATHA THATI</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="n">
@@ -10247,6 +11920,10 @@
       <c r="E420" s="0" t="n">
         <v>9493973672</v>
       </c>
+      <c r="G420" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C420</f>
+        <v>CKR-1MALLESWARI GUDISE</v>
+      </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="n">
@@ -10264,6 +11941,10 @@
       <c r="E421" s="0" t="n">
         <v>8776265386</v>
       </c>
+      <c r="G421" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C421</f>
+        <v>CKR-1SATYANARAYANA GUNDA</v>
+      </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="n">
@@ -10281,6 +11962,10 @@
       <c r="E422" s="0" t="n">
         <v>9550958965</v>
       </c>
+      <c r="G422" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C422</f>
+        <v>CKR-1SRIKANTH CHIKKULA</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="n">
@@ -10298,6 +11983,10 @@
       <c r="E423" s="0" t="n">
         <v>9701800264</v>
       </c>
+      <c r="G423" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C423</f>
+        <v>CKR-1RAVI ALLAKONDA</v>
+      </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="n">
@@ -10315,6 +12004,10 @@
       <c r="E424" s="0" t="n">
         <v>9618993677</v>
       </c>
+      <c r="G424" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C424</f>
+        <v>CKR-1RAMYA KATIKAREDDY</v>
+      </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="n">
@@ -10332,6 +12025,10 @@
       <c r="E425" s="0" t="n">
         <v>7794847473</v>
       </c>
+      <c r="G425" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C425</f>
+        <v>CKR-1CHALLA SATHISH</v>
+      </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="n">
@@ -10349,6 +12046,10 @@
       <c r="E426" s="0" t="n">
         <v>9912195109</v>
       </c>
+      <c r="G426" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C426</f>
+        <v>CKR-1PUDARI KALYANKUMAR</v>
+      </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="n">
@@ -10366,6 +12067,10 @@
       <c r="E427" s="0" t="n">
         <v>9948452025</v>
       </c>
+      <c r="G427" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C427</f>
+        <v>CKR-1KUMARASWAMY KANDUKURI</v>
+      </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="n">
@@ -10383,6 +12088,10 @@
       <c r="E428" s="0" t="n">
         <v>7095766977</v>
       </c>
+      <c r="G428" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C428</f>
+        <v>CKR-1TEJASRI DEVARASHETTI</v>
+      </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="n">
@@ -10400,6 +12109,10 @@
       <c r="E429" s="0" t="n">
         <v>8501083292</v>
       </c>
+      <c r="G429" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C429</f>
+        <v>CKR-1JAMUNA PUDURI</v>
+      </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="n">
@@ -10417,6 +12130,10 @@
       <c r="E430" s="0" t="n">
         <v>8886814378</v>
       </c>
+      <c r="G430" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C430</f>
+        <v>CKR-1JAGADHISH KOTHAPELLI</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="n">
@@ -10434,6 +12151,10 @@
       <c r="E431" s="0" t="n">
         <v>9440085830</v>
       </c>
+      <c r="G431" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C431</f>
+        <v>CKR-1HARISH GUMMULA</v>
+      </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="n">
@@ -10451,6 +12172,10 @@
       <c r="E432" s="0" t="n">
         <v>8790516155</v>
       </c>
+      <c r="G432" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C432</f>
+        <v>CKR-1DAGGULA VEERESHAM</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="n">
@@ -10468,6 +12193,10 @@
       <c r="E433" s="0" t="n">
         <v>9989323652</v>
       </c>
+      <c r="G433" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C433</f>
+        <v>CKR-1MAHENDAR NERELLA</v>
+      </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="n">
@@ -10485,6 +12214,10 @@
       <c r="E434" s="0" t="n">
         <v>9849643372</v>
       </c>
+      <c r="G434" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C434</f>
+        <v>CKR-1SAMATHA DONTHULA</v>
+      </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="n">
@@ -10502,6 +12235,10 @@
       <c r="E435" s="0" t="n">
         <v>9603838389</v>
       </c>
+      <c r="G435" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C435</f>
+        <v>CKR-1HAREESH KALUVA</v>
+      </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="n">
@@ -10519,6 +12256,10 @@
       <c r="E436" s="0" t="n">
         <v>9492458520</v>
       </c>
+      <c r="G436" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C436</f>
+        <v>CKR-1SAHASRA MYADA</v>
+      </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="n">
@@ -10536,6 +12277,10 @@
       <c r="E437" s="0" t="n">
         <v>9347830924</v>
       </c>
+      <c r="G437" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C437</f>
+        <v>CKR-1KASTURI BHAVANA</v>
+      </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="n">
@@ -10553,6 +12298,10 @@
       <c r="E438" s="0" t="n">
         <v>8639546467</v>
       </c>
+      <c r="G438" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C438</f>
+        <v>CKR-1SWAPNA BANDHELA</v>
+      </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="n">
@@ -10570,6 +12319,10 @@
       <c r="E439" s="0" t="n">
         <v>9949212751</v>
       </c>
+      <c r="G439" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C439</f>
+        <v>CKR-1SUBHASH MUTHINENI</v>
+      </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="n">
@@ -10587,6 +12340,10 @@
       <c r="E440" s="0" t="n">
         <v>7660026258</v>
       </c>
+      <c r="G440" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C440</f>
+        <v>CKR-1AKANKSHA KOLUMULA</v>
+      </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="n">
@@ -10604,6 +12361,10 @@
       <c r="E441" s="0" t="n">
         <v>9550958965</v>
       </c>
+      <c r="G441" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C441</f>
+        <v>CKR-1SAIPRAGATHI KOLUMULA</v>
+      </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="n">
@@ -10621,6 +12382,10 @@
       <c r="E442" s="0" t="n">
         <v>8639838423</v>
       </c>
+      <c r="G442" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C442</f>
+        <v>CKR-1VENNELA EDLA</v>
+      </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="n">
@@ -10638,6 +12403,10 @@
       <c r="E443" s="0" t="n">
         <v>9440518349</v>
       </c>
+      <c r="G443" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C443</f>
+        <v>CKR-1PAVITHRA BADDAM</v>
+      </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="n">
@@ -10655,6 +12424,10 @@
       <c r="E444" s="0" t="n">
         <v>8328306250</v>
       </c>
+      <c r="G444" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C444</f>
+        <v>CKR-1RAJSHEKHAR CHEERNENI</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="n">
@@ -10672,6 +12445,10 @@
       <c r="E445" s="0" t="n">
         <v>9493973672</v>
       </c>
+      <c r="G445" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C445</f>
+        <v>CKR-1RANJITH CHINTALA</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="n">
@@ -10689,6 +12466,10 @@
       <c r="E446" s="0" t="n">
         <v>9676954185</v>
       </c>
+      <c r="G446" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C446</f>
+        <v>CKR-1SHIRISHA NAGAVATH</v>
+      </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="n">
@@ -10706,6 +12487,10 @@
       <c r="E447" s="0" t="n">
         <v>8125502676</v>
       </c>
+      <c r="G447" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C447</f>
+        <v>CKR-1SURESH KUMAR NAGAVATH</v>
+      </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="n">
@@ -10723,6 +12508,10 @@
       <c r="E448" s="0" t="n">
         <v>9618622897</v>
       </c>
+      <c r="G448" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C448</f>
+        <v>CKR-1SATHISH ADEPU</v>
+      </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="n">
@@ -10740,6 +12529,10 @@
       <c r="E449" s="0" t="n">
         <v>9948294194</v>
       </c>
+      <c r="G449" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C449</f>
+        <v>CKR-1SANTHOSH JAGISHETTI</v>
+      </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="n">
@@ -10757,6 +12550,10 @@
       <c r="E450" s="0" t="n">
         <v>9705699678</v>
       </c>
+      <c r="G450" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C450</f>
+        <v>CKR-1YASHODA PRASANTH</v>
+      </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="n">
@@ -10774,6 +12571,10 @@
       <c r="E451" s="0" t="n">
         <v>8096675282</v>
       </c>
+      <c r="G451" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C451</f>
+        <v>CKR-1SHYLAJA KANUKA</v>
+      </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="n">
@@ -10791,6 +12592,10 @@
       <c r="E452" s="0" t="n">
         <v>8897084016</v>
       </c>
+      <c r="G452" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C452</f>
+        <v>CKR-1GANGADHAR AJMEERA</v>
+      </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="n">
@@ -10808,6 +12613,10 @@
       <c r="E453" s="0" t="n">
         <v>9493662308</v>
       </c>
+      <c r="G453" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C453</f>
+        <v>CKR-1RAJKUMAR BETHI</v>
+      </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="n">
@@ -10825,6 +12634,10 @@
       <c r="E454" s="0" t="n">
         <v>9553039890</v>
       </c>
+      <c r="G454" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C454</f>
+        <v>CKR-1G MAMATHA</v>
+      </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="n">
@@ -10842,6 +12655,10 @@
       <c r="E455" s="0" t="n">
         <v>9493973672</v>
       </c>
+      <c r="G455" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C455</f>
+        <v>CKR-1PRAVEEN KUMAR YADAV MUKKA</v>
+      </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="n">
@@ -10859,6 +12676,10 @@
       <c r="E456" s="0" t="n">
         <v>9951188127</v>
       </c>
+      <c r="G456" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C456</f>
+        <v>CKR-1BASWARAJULA SWAPNA</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="n">
@@ -10876,6 +12697,10 @@
       <c r="E457" s="0" t="n">
         <v>9502688595</v>
       </c>
+      <c r="G457" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C457</f>
+        <v>CKR-1MADHUSUDHAN GODUGU</v>
+      </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="n">
@@ -10893,6 +12718,10 @@
       <c r="E458" s="0" t="n">
         <v>9542887727</v>
       </c>
+      <c r="G458" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C458</f>
+        <v>CKR-1GUDLA VINOD</v>
+      </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="n">
@@ -10910,6 +12739,10 @@
       <c r="E459" s="0" t="n">
         <v>9505972921</v>
       </c>
+      <c r="G459" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C459</f>
+        <v>CKR-1GANGABHAVANI DEETI</v>
+      </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="n">
@@ -10927,6 +12760,10 @@
       <c r="E460" s="0" t="n">
         <v>8978016960</v>
       </c>
+      <c r="G460" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C460</f>
+        <v>CKR-1PRABHAKAR PONNAMALLA</v>
+      </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="n">
@@ -10944,6 +12781,10 @@
       <c r="E461" s="0" t="n">
         <v>9949996766</v>
       </c>
+      <c r="G461" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C461</f>
+        <v>CKR-1THIRUPATHI JAKKULA</v>
+      </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="n">
@@ -10961,6 +12802,10 @@
       <c r="E462" s="0" t="n">
         <v>9912664597</v>
       </c>
+      <c r="G462" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C462</f>
+        <v>CKR-1NAGESH ADEPU</v>
+      </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="n">
@@ -10978,6 +12823,10 @@
       <c r="E463" s="0" t="n">
         <v>7093636880</v>
       </c>
+      <c r="G463" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C463</f>
+        <v>CKR-1DOSARAPU VINAY</v>
+      </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="n">
@@ -10995,6 +12844,10 @@
       <c r="E464" s="0" t="n">
         <v>8790414199</v>
       </c>
+      <c r="G464" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C464</f>
+        <v>CKR-1JAGAN MITTAPELLI</v>
+      </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="n">
@@ -11012,6 +12865,10 @@
       <c r="E465" s="0" t="n">
         <v>9010242379</v>
       </c>
+      <c r="G465" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C465</f>
+        <v>CKR-1SWAROOPA BANAVATH</v>
+      </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="n">
@@ -11029,6 +12886,10 @@
       <c r="E466" s="0" t="n">
         <v>9347883986</v>
       </c>
+      <c r="G466" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C466</f>
+        <v>CKR-1NAVEEN MUKKA</v>
+      </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="n">
@@ -11046,6 +12907,10 @@
       <c r="E467" s="0" t="n">
         <v>9515132151</v>
       </c>
+      <c r="G467" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C467</f>
+        <v>CKR-1SANDEEP KUMAR KOMIRE</v>
+      </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="n">
@@ -11063,6 +12928,10 @@
       <c r="E468" s="0" t="n">
         <v>9550535202</v>
       </c>
+      <c r="G468" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C468</f>
+        <v>CKR-1SHEIK SHADULLA</v>
+      </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="n">
@@ -11080,6 +12949,10 @@
       <c r="E469" s="0" t="n">
         <v>9949978973</v>
       </c>
+      <c r="G469" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C469</f>
+        <v>CKR-1PUDARI KARTHIK</v>
+      </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="n">
@@ -11097,6 +12970,10 @@
       <c r="E470" s="0" t="n">
         <v>9573160915</v>
       </c>
+      <c r="G470" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C470</f>
+        <v>CKR-1YASHODA NAGA LAXMI</v>
+      </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="n">
@@ -11114,6 +12991,10 @@
       <c r="E471" s="0" t="n">
         <v>7702706416</v>
       </c>
+      <c r="G471" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C471</f>
+        <v>CKR-1RAVICHANDRA MAMIDIPELLY</v>
+      </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="n">
@@ -11131,6 +13012,10 @@
       <c r="E472" s="0" t="n">
         <v>7386996235</v>
       </c>
+      <c r="G472" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C472</f>
+        <v>CKR-1SOUMYA PUDURI</v>
+      </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="n">
@@ -11148,6 +13033,10 @@
       <c r="E473" s="0" t="n">
         <v>8897791409</v>
       </c>
+      <c r="G473" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C473</f>
+        <v>CKR-1ANUSHA JADI</v>
+      </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="n">
@@ -11165,6 +13054,10 @@
       <c r="E474" s="0" t="n">
         <v>6305291808</v>
       </c>
+      <c r="G474" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C474</f>
+        <v>CKR-1CHIKRAM DIVYA</v>
+      </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="n">
@@ -11182,6 +13075,10 @@
       <c r="E475" s="0" t="n">
         <v>9705887766</v>
       </c>
+      <c r="G475" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C475</f>
+        <v>CKR-1THIRUPATHI AYYORU</v>
+      </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="n">
@@ -11199,6 +13096,10 @@
       <c r="E476" s="0" t="n">
         <v>9989255135</v>
       </c>
+      <c r="G476" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C476</f>
+        <v>CKR-1VISHNU GUNDA</v>
+      </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="n">
@@ -11216,6 +13117,10 @@
       <c r="E477" s="0" t="n">
         <v>9550221565</v>
       </c>
+      <c r="G477" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C477</f>
+        <v>CKR-1VIJAY KUMAR DOSARAPU</v>
+      </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="n">
@@ -11233,6 +13138,10 @@
       <c r="E478" s="0" t="n">
         <v>9502234706</v>
       </c>
+      <c r="G478" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C478</f>
+        <v>CKR-1GORLA SUSMITHA</v>
+      </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="n">
@@ -11250,6 +13159,10 @@
       <c r="E479" s="0" t="n">
         <v>9966743003</v>
       </c>
+      <c r="G479" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C479</f>
+        <v>CKR-1RAMESH THODASAM</v>
+      </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="n">
@@ -11267,6 +13180,10 @@
       <c r="E480" s="0" t="n">
         <v>9908474497</v>
       </c>
+      <c r="G480" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C480</f>
+        <v>CKR-1MALLIKA INDRALA</v>
+      </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="n">
@@ -11284,6 +13201,10 @@
       <c r="E481" s="0" t="n">
         <v>8790824797</v>
       </c>
+      <c r="G481" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C481</f>
+        <v>CKR-1VIJAYA MUDDAM</v>
+      </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="n">
@@ -11301,6 +13222,10 @@
       <c r="E482" s="0" t="n">
         <v>9618746682</v>
       </c>
+      <c r="G482" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C482</f>
+        <v>CKR-1BALAMALLAIAH NYARAM</v>
+      </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="n">
@@ -11318,6 +13243,10 @@
       <c r="E483" s="0" t="n">
         <v>9676137927</v>
       </c>
+      <c r="G483" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C483</f>
+        <v>CKR-1CHERELLA MADHUKAR</v>
+      </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="n">
@@ -11335,6 +13264,10 @@
       <c r="E484" s="0" t="n">
         <v>8897070281</v>
       </c>
+      <c r="G484" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C484</f>
+        <v>CKR-1RAJKUMAR ASAM</v>
+      </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="n">
@@ -11352,6 +13285,10 @@
       <c r="E485" s="0" t="n">
         <v>8008221618</v>
       </c>
+      <c r="G485" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C485</f>
+        <v>CKR-1MERUGU VIGNESH</v>
+      </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="n">
@@ -11369,6 +13306,10 @@
       <c r="E486" s="0" t="n">
         <v>7036919359</v>
       </c>
+      <c r="G486" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C486</f>
+        <v>CKR-1DHARAMSOTH MOUNIKA</v>
+      </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="n">
@@ -11386,6 +13327,10 @@
       <c r="E487" s="0" t="n">
         <v>9502736389</v>
       </c>
+      <c r="G487" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C487</f>
+        <v>CKR-1VINOD BETHEPU</v>
+      </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="n">
@@ -11403,6 +13348,10 @@
       <c r="E488" s="0" t="n">
         <v>9948446602</v>
       </c>
+      <c r="G488" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C488</f>
+        <v>CKR-1VAMSHIDHAR PARVATHI</v>
+      </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="n">
@@ -11420,6 +13369,10 @@
       <c r="E489" s="0" t="n">
         <v>7674094789</v>
       </c>
+      <c r="G489" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C489</f>
+        <v>CKR-1SUBHASH CHEERNENI</v>
+      </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="n">
@@ -11437,6 +13390,10 @@
       <c r="E490" s="0" t="n">
         <v>8790703132</v>
       </c>
+      <c r="G490" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C490</f>
+        <v>CKR-1NAVEEN KUMAR MADISHETTY</v>
+      </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="n">
@@ -11454,6 +13411,10 @@
       <c r="E491" s="0" t="n">
         <v>8885314543</v>
       </c>
+      <c r="G491" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C491</f>
+        <v>CKR-1SRINIVAS PERAGANI</v>
+      </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="n">
@@ -11471,6 +13432,10 @@
       <c r="E492" s="0" t="n">
         <v>9849971588</v>
       </c>
+      <c r="G492" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C492</f>
+        <v>CKR-1RAJU CHUNCHU</v>
+      </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="n">
@@ -11488,6 +13453,10 @@
       <c r="E493" s="0" t="n">
         <v>9949213090</v>
       </c>
+      <c r="G493" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C493</f>
+        <v>CKR-1RAMESH PUDURI</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="n">
@@ -11505,6 +13474,10 @@
       <c r="E494" s="0" t="n">
         <v>7093034236</v>
       </c>
+      <c r="G494" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C494</f>
+        <v>CKR-1SUKANYA CHUNCHU</v>
+      </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="n">
@@ -11522,6 +13495,10 @@
       <c r="E495" s="0" t="n">
         <v>7780695865</v>
       </c>
+      <c r="G495" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C495</f>
+        <v>CKR-1RAMANA SRI SHEELAM</v>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="n">
@@ -11539,6 +13516,10 @@
       <c r="E496" s="0" t="n">
         <v>9502177290</v>
       </c>
+      <c r="G496" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C496</f>
+        <v>CKR-1RAVINDAR DUSAMUDI</v>
+      </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="n">
@@ -11556,6 +13537,10 @@
       <c r="E497" s="0" t="n">
         <v>9652073272</v>
       </c>
+      <c r="G497" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C497</f>
+        <v>CKR-1KRANTHIKUMAR KATIKAREDDY</v>
+      </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="n">
@@ -11573,6 +13558,10 @@
       <c r="E498" s="0" t="n">
         <v>7893671223</v>
       </c>
+      <c r="G498" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C498</f>
+        <v>CKR-1SERELLA RAJENDHAR</v>
+      </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="n">
@@ -11590,6 +13579,10 @@
       <c r="E499" s="0" t="n">
         <v>6302054578</v>
       </c>
+      <c r="G499" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C499</f>
+        <v>CKR-1SUMALATHA BHUKYA</v>
+      </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="n">
@@ -11607,6 +13600,10 @@
       <c r="E500" s="0" t="n">
         <v>8106628260</v>
       </c>
+      <c r="G500" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C500</f>
+        <v>CKR-1REEMA MEDI</v>
+      </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="n">
@@ -11624,6 +13621,10 @@
       <c r="E501" s="0" t="n">
         <v>9177258684</v>
       </c>
+      <c r="G501" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C501</f>
+        <v>CKR-1LAKHAN ARELLY</v>
+      </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="n">
@@ -11641,6 +13642,10 @@
       <c r="E502" s="0" t="n">
         <v>9177702270</v>
       </c>
+      <c r="G502" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C502</f>
+        <v>CKR-1GANGAJALA DHOODA</v>
+      </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="n">
@@ -11658,6 +13663,10 @@
       <c r="E503" s="0" t="n">
         <v>9515532252</v>
       </c>
+      <c r="G503" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C503</f>
+        <v>CKR-1THIRUMALA BANDARI</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="n">
@@ -11675,6 +13684,10 @@
       <c r="E504" s="0" t="n">
         <v>7731821087</v>
       </c>
+      <c r="G504" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C504</f>
+        <v>CKR-1VINAY CHIKKULLA</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="n">
@@ -11692,6 +13705,10 @@
       <c r="E505" s="0" t="n">
         <v>9550955824</v>
       </c>
+      <c r="G505" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C505</f>
+        <v>CKR-1GORLA SANJEEV KUMAR</v>
+      </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="n">
@@ -11709,6 +13726,10 @@
       <c r="E506" s="0" t="n">
         <v>7661067348</v>
       </c>
+      <c r="G506" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C506</f>
+        <v>CKR-1RAJENDER CHEERNENI</v>
+      </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="n">
@@ -11726,6 +13747,10 @@
       <c r="E507" s="0" t="n">
         <v>7997626827</v>
       </c>
+      <c r="G507" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C507</f>
+        <v>CKR-1VENKATESH GAJARLA</v>
+      </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="n">
@@ -11743,6 +13768,10 @@
       <c r="E508" s="0" t="n">
         <v>9866991606</v>
       </c>
+      <c r="G508" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C508</f>
+        <v>CKR-1LAXMAN CHIKRAM</v>
+      </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="n">
@@ -11760,6 +13789,10 @@
       <c r="E509" s="0" t="n">
         <v>9866739380</v>
       </c>
+      <c r="G509" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C509</f>
+        <v>CKR-1DASARAM ARUNA</v>
+      </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="n">
@@ -11777,6 +13810,10 @@
       <c r="E510" s="0" t="n">
         <v>6309873045</v>
       </c>
+      <c r="G510" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C510</f>
+        <v>CKR-1MANGA KANDLE</v>
+      </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="n">
@@ -11794,6 +13831,10 @@
       <c r="E511" s="0" t="n">
         <v>9963988082</v>
       </c>
+      <c r="G511" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C511</f>
+        <v>CKR-1RAKESH POLASA</v>
+      </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="n">
@@ -11811,6 +13852,10 @@
       <c r="E512" s="0" t="n">
         <v>9676457588</v>
       </c>
+      <c r="G512" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C512</f>
+        <v>CKR-1CHERUPURI DEEPIKA</v>
+      </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="n">
@@ -11828,6 +13873,10 @@
       <c r="E513" s="0" t="n">
         <v>9676983268</v>
       </c>
+      <c r="G513" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C513</f>
+        <v>CKR-1RAMESH NERELLA</v>
+      </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="n">
@@ -11845,6 +13894,10 @@
       <c r="E514" s="0" t="n">
         <v>8179779002</v>
       </c>
+      <c r="G514" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C514</f>
+        <v>CKR-1SRIKANTH THATI</v>
+      </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="n">
@@ -11862,6 +13915,10 @@
       <c r="E515" s="0" t="n">
         <v>7893355235</v>
       </c>
+      <c r="G515" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C515</f>
+        <v>CKR-1BORALAKUNTA SONIA</v>
+      </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="n">
@@ -11879,6 +13936,10 @@
       <c r="E516" s="0" t="n">
         <v>9505418178</v>
       </c>
+      <c r="G516" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C516</f>
+        <v>CKR-1SURESH GUMMADI</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="n">
@@ -11896,6 +13957,10 @@
       <c r="E517" s="0" t="n">
         <v>9963706954</v>
       </c>
+      <c r="G517" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C517</f>
+        <v>CKR-1SHRUTHI CHEERNENI</v>
+      </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="n">
@@ -11913,6 +13978,10 @@
       <c r="E518" s="0" t="n">
         <v>9381979518</v>
       </c>
+      <c r="G518" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C518</f>
+        <v>CKR-1HEMALATHA MAMIDIPELLI</v>
+      </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="n">
@@ -11930,6 +13999,10 @@
       <c r="E519" s="0" t="n">
         <v>7337567220</v>
       </c>
+      <c r="G519" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C519</f>
+        <v>CKR-1SURESH BEKKEM</v>
+      </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="n">
@@ -11947,6 +14020,10 @@
       <c r="E520" s="0" t="n">
         <v>9618842293</v>
       </c>
+      <c r="G520" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C520</f>
+        <v>CKR-1SATHYANARAYANA GUNDA</v>
+      </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="n">
@@ -11964,6 +14041,10 @@
       <c r="E521" s="0" t="n">
         <v>9110737528</v>
       </c>
+      <c r="G521" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C521</f>
+        <v>CKR-1NARESH MYADA</v>
+      </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="n">
@@ -11981,6 +14062,10 @@
       <c r="E522" s="0" t="n">
         <v>9949848121</v>
       </c>
+      <c r="G522" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C522</f>
+        <v>CKR-1THIPPARTHI SWATHI</v>
+      </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="n">
@@ -11998,6 +14083,10 @@
       <c r="E523" s="0" t="n">
         <v>9550772680</v>
       </c>
+      <c r="G523" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C523</f>
+        <v>CKR-1MYADA SHARADA</v>
+      </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="n">
@@ -12015,6 +14104,10 @@
       <c r="E524" s="0" t="n">
         <v>9492040675</v>
       </c>
+      <c r="G524" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C524</f>
+        <v>CKR-1POODURI SHANKER</v>
+      </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="n">
@@ -12032,6 +14125,10 @@
       <c r="E525" s="0" t="n">
         <v>9849838355</v>
       </c>
+      <c r="G525" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C525</f>
+        <v>CKR-1RAJASHEKHAR YELLA</v>
+      </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="n">
@@ -12049,6 +14146,10 @@
       <c r="E526" s="0" t="n">
         <v>9493264811</v>
       </c>
+      <c r="G526" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C526</f>
+        <v>CKR-1RATNAKAR AJMERA</v>
+      </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="n">
@@ -12066,6 +14167,10 @@
       <c r="E527" s="0" t="n">
         <v>9553628034</v>
       </c>
+      <c r="G527" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C527</f>
+        <v>CKR-1ANITHA MATETI</v>
+      </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="n">
@@ -12083,6 +14188,10 @@
       <c r="E528" s="0" t="n">
         <v>8341428096</v>
       </c>
+      <c r="G528" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C528</f>
+        <v>CKR-1RAJESH NARIMETLA</v>
+      </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="n">
@@ -12100,6 +14209,10 @@
       <c r="E529" s="0" t="n">
         <v>9603079953</v>
       </c>
+      <c r="G529" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C529</f>
+        <v>CKR-1THOKALA MAHESH</v>
+      </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="n">
@@ -12117,6 +14230,10 @@
       <c r="E530" s="0" t="n">
         <v>9177022070</v>
       </c>
+      <c r="G530" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C530</f>
+        <v>CKR-1NARESH BEKKEM</v>
+      </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="n">
@@ -12134,6 +14251,10 @@
       <c r="E531" s="0" t="n">
         <v>9505055625</v>
       </c>
+      <c r="G531" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C531</f>
+        <v>CKR-1SANTHOSHKUMAR THOTA</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="n">
@@ -12151,6 +14272,10 @@
       <c r="E532" s="0" t="n">
         <v>8008039048</v>
       </c>
+      <c r="G532" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C532</f>
+        <v>CKR-1HARISH DUMPETA</v>
+      </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="n">
@@ -12168,6 +14293,10 @@
       <c r="E533" s="0" t="n">
         <v>9949433597</v>
       </c>
+      <c r="G533" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C533</f>
+        <v>CKR-1SATYAVANI NARAPAKA</v>
+      </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="n">
@@ -12185,6 +14314,10 @@
       <c r="E534" s="0" t="n">
         <v>9493756044</v>
       </c>
+      <c r="G534" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C534</f>
+        <v>CKR-1GOVARDHAN ADLA</v>
+      </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="n">
@@ -12202,6 +14335,10 @@
       <c r="E535" s="0" t="n">
         <v>8328038209</v>
       </c>
+      <c r="G535" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C535</f>
+        <v>CKR-1BALA MEENA</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="n">
@@ -12219,6 +14356,10 @@
       <c r="E536" s="0" t="n">
         <v>9010400474</v>
       </c>
+      <c r="G536" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C536</f>
+        <v>CKR-1AJAY KUMAR KANAGANDULA</v>
+      </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="n">
@@ -12236,6 +14377,10 @@
       <c r="E537" s="0" t="n">
         <v>7569719132</v>
       </c>
+      <c r="G537" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C537</f>
+        <v>CKR-1LAXMAN CHALLA</v>
+      </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="n">
@@ -12253,6 +14398,10 @@
       <c r="E538" s="0" t="n">
         <v>7981417231</v>
       </c>
+      <c r="G538" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C538</f>
+        <v>CKR-1CHUNCHU RAMESH</v>
+      </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="n">
@@ -12270,6 +14419,10 @@
       <c r="E539" s="0" t="n">
         <v>8897074366</v>
       </c>
+      <c r="G539" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C539</f>
+        <v>CKR-1SANJAY BETTHAPU</v>
+      </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="n">
@@ -12287,6 +14440,10 @@
       <c r="E540" s="0" t="n">
         <v>9000301714</v>
       </c>
+      <c r="G540" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C540</f>
+        <v>CKR-1DINESH ANNAM</v>
+      </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="n">
@@ -12304,6 +14461,10 @@
       <c r="E541" s="0" t="n">
         <v>7993195633</v>
       </c>
+      <c r="G541" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C541</f>
+        <v>CKR-1MANASA RIKKALA</v>
+      </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="n">
@@ -12321,6 +14482,10 @@
       <c r="E542" s="0" t="n">
         <v>7731821097</v>
       </c>
+      <c r="G542" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C542</f>
+        <v>CKR-1GUDISE SRIKAR</v>
+      </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="n">
@@ -12338,6 +14503,10 @@
       <c r="E543" s="0" t="n">
         <v>9912150265</v>
       </c>
+      <c r="G543" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C543</f>
+        <v>CKR-1MATETI RAMESH</v>
+      </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="n">
@@ -12355,6 +14524,10 @@
       <c r="E544" s="0" t="n">
         <v>9989982966</v>
       </c>
+      <c r="G544" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C544</f>
+        <v>CKR-1HARISH YADAV ADLA</v>
+      </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="n">
@@ -12372,6 +14545,10 @@
       <c r="E545" s="0" t="n">
         <v>9951879849</v>
       </c>
+      <c r="G545" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C545</f>
+        <v>CKR-1SINDHUJA RIKKALA</v>
+      </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="n">
@@ -12389,6 +14566,10 @@
       <c r="E546" s="0" t="n">
         <v>9912707517</v>
       </c>
+      <c r="G546" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C546</f>
+        <v>CKR-1JALENDHAR SHEELAM</v>
+      </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="n">
@@ -12406,6 +14587,10 @@
       <c r="E547" s="0" t="n">
         <v>7731852449</v>
       </c>
+      <c r="G547" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C547</f>
+        <v>CKR-1POODOORI SRINIVAS</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="n">
@@ -12423,6 +14608,10 @@
       <c r="E548" s="0" t="n">
         <v>9490531311</v>
       </c>
+      <c r="G548" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C548</f>
+        <v>CKR-1VASAVI AKKINAPELLY</v>
+      </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="n">
@@ -12440,6 +14629,10 @@
       <c r="E549" s="0" t="n">
         <v>9392273978</v>
       </c>
+      <c r="G549" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C549</f>
+        <v>CKR-1MAHESH CHALLA</v>
+      </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="n">
@@ -12457,6 +14650,10 @@
       <c r="E550" s="0" t="n">
         <v>9618900285</v>
       </c>
+      <c r="G550" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C550</f>
+        <v>CKR-1VENKATESH AJMEERA</v>
+      </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="n">
@@ -12474,6 +14671,10 @@
       <c r="E551" s="0" t="n">
         <v>9542023536</v>
       </c>
+      <c r="G551" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C551</f>
+        <v>CKR-1MEKALA RAJU</v>
+      </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="n">
@@ -12491,6 +14692,10 @@
       <c r="E552" s="0" t="n">
         <v>9030803323</v>
       </c>
+      <c r="G552" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C552</f>
+        <v>CKR-1SHARATH YADAV VEYYA</v>
+      </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="n">
@@ -12508,6 +14713,10 @@
       <c r="E553" s="0" t="n">
         <v>7732038177</v>
       </c>
+      <c r="G553" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C553</f>
+        <v>CKR-1ADLA JYOSTHNA</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="n">
@@ -12524,6 +14733,10 @@
       </c>
       <c r="E554" s="0" t="n">
         <v>9866847698</v>
+      </c>
+      <c r="G554" s="0" t="str">
+        <f aca="false">"CKR-1"&amp;C554</f>
+        <v>CKR-1BHAVANI GUDESI</v>
       </c>
     </row>
   </sheetData>
